--- a/aes-api-enum-codes.xlsx
+++ b/aes-api-enum-codes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asara\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1877480-F703-4E2B-9B94-B82E2AE62630}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A9E503-FD86-46F3-A75A-688016684D55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="1585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="1587">
   <si>
     <t>CARRIER</t>
   </si>
@@ -4974,6 +4974,12 @@
   </si>
   <si>
     <t>ILLEGAL REFERENCE CHARACTERS</t>
+  </si>
+  <si>
+    <t>CB100</t>
+  </si>
+  <si>
+    <t>INVALID CALLBACK URL</t>
   </si>
 </sst>
 </file>
@@ -8164,7 +8170,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE9C347-2D14-4B5A-8CD2-1FD0ECEBECB5}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
@@ -8391,6 +8397,14 @@
       </c>
       <c r="B27" s="96" t="s">
         <v>1584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="96" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B28" s="96" t="s">
+        <v>1586</v>
       </c>
     </row>
   </sheetData>

--- a/aes-api-enum-codes.xlsx
+++ b/aes-api-enum-codes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asara\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A9E503-FD86-46F3-A75A-688016684D55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3E0E82-6660-4B8B-87C9-DE300978151C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="1587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="1597">
   <si>
     <t>CARRIER</t>
   </si>
@@ -4980,6 +4980,36 @@
   </si>
   <si>
     <t>INVALID CALLBACK URL</t>
+  </si>
+  <si>
+    <t>CA100</t>
+  </si>
+  <si>
+    <t>CUSTOM ATTRIBUTTES ARE REQUIRED</t>
+  </si>
+  <si>
+    <t>RR101</t>
+  </si>
+  <si>
+    <t>AT LEAST ONE REFERENCE IS REQUIRED</t>
+  </si>
+  <si>
+    <t>CA101</t>
+  </si>
+  <si>
+    <t>CUSTOM ATTRIBUTTES UID IS REQUIRED</t>
+  </si>
+  <si>
+    <t>CA102</t>
+  </si>
+  <si>
+    <t>CUSTOM ATTRIBUTTES CLIENT DOES NOT EXIST</t>
+  </si>
+  <si>
+    <t>CUSTOM ATTRIBUTTES CLIENT IS REQUIRED</t>
+  </si>
+  <si>
+    <t>CA103</t>
   </si>
 </sst>
 </file>
@@ -8170,10 +8200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE9C347-2D14-4B5A-8CD2-1FD0ECEBECB5}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8405,6 +8435,46 @@
       </c>
       <c r="B28" s="96" t="s">
         <v>1586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="96" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B29" s="96" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="96" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B30" s="96" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="96" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B31" s="96" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="96" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B32" s="96" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="96" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B33" s="96" t="s">
+        <v>1595</v>
       </c>
     </row>
   </sheetData>

--- a/aes-api-enum-codes.xlsx
+++ b/aes-api-enum-codes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asara\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3E0E82-6660-4B8B-87C9-DE300978151C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E609573B-C343-4FC6-8217-489FCACEAB74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="1597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="1599">
   <si>
     <t>CARRIER</t>
   </si>
@@ -5010,6 +5010,12 @@
   </si>
   <si>
     <t>CA103</t>
+  </si>
+  <si>
+    <t>ER109</t>
+  </si>
+  <si>
+    <t>CONTAINER NUMBER REQUIRED FOR QUERY</t>
   </si>
 </sst>
 </file>
@@ -8200,10 +8206,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE9C347-2D14-4B5A-8CD2-1FD0ECEBECB5}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8286,10 +8292,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="111" t="s">
         <v>1223</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="111" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -8475,6 +8481,14 @@
       </c>
       <c r="B33" s="96" t="s">
         <v>1595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="117" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B34" s="117" t="s">
+        <v>1598</v>
       </c>
     </row>
   </sheetData>

--- a/aes-api-enum-codes.xlsx
+++ b/aes-api-enum-codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asara\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E609573B-C343-4FC6-8217-489FCACEAB74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBD72B7-08A7-4368-BD13-6B8FBF88C596}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="1599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="1601">
   <si>
     <t>CARRIER</t>
   </si>
@@ -5016,6 +5016,12 @@
   </si>
   <si>
     <t>CONTAINER NUMBER REQUIRED FOR QUERY</t>
+  </si>
+  <si>
+    <t>ER110</t>
+  </si>
+  <si>
+    <t>INVALID CONTAINER NUMBER REQUIRED FOR QUERY</t>
   </si>
 </sst>
 </file>
@@ -8206,10 +8212,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE9C347-2D14-4B5A-8CD2-1FD0ECEBECB5}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B34"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8489,6 +8495,14 @@
       </c>
       <c r="B34" s="117" t="s">
         <v>1598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B35" s="117" t="s">
+        <v>1600</v>
       </c>
     </row>
   </sheetData>

--- a/aes-api-enum-codes.xlsx
+++ b/aes-api-enum-codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asara\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBD72B7-08A7-4368-BD13-6B8FBF88C596}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C44E31-643D-4180-85FB-3B354E0D3B3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="1606">
   <si>
     <t>CARRIER</t>
   </si>
@@ -5022,6 +5022,21 @@
   </si>
   <si>
     <t>INVALID CONTAINER NUMBER REQUIRED FOR QUERY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRIER DATA PURGED OR ARCHIVED </t>
+  </si>
+  <si>
+    <t>CBL is Live for 45 DAYS (Default Limit)</t>
+  </si>
+  <si>
+    <t>ACK-VALUE</t>
+  </si>
+  <si>
+    <t>ER111</t>
+  </si>
+  <si>
+    <t>BOL- CNT MIS-MATCH</t>
   </si>
 </sst>
 </file>
@@ -8212,297 +8227,429 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE9C347-2D14-4B5A-8CD2-1FD0ECEBECB5}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="96" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" style="96" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="96"/>
+    <col min="3" max="3" width="51.140625" style="96" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" style="96" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="97" t="s">
         <v>1009</v>
       </c>
       <c r="B1" s="97" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="97" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="96" t="s">
         <v>1196</v>
       </c>
       <c r="B2" s="96" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="96" t="s">
         <v>1198</v>
       </c>
       <c r="B3" s="96" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="96" t="s">
         <v>1203</v>
       </c>
       <c r="B4" s="96" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="96" t="s">
         <v>1200</v>
       </c>
       <c r="B5" s="96" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="96" t="s">
         <v>1201</v>
       </c>
       <c r="B6" s="96" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="96" t="s">
         <v>1202</v>
       </c>
       <c r="B7" s="96" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="96" t="s">
         <v>1204</v>
       </c>
       <c r="B8" s="96" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="96" t="s">
         <v>1222</v>
       </c>
       <c r="B9" s="96" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="111" t="s">
         <v>1223</v>
       </c>
       <c r="B10" s="111" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="96" t="s">
         <v>1513</v>
       </c>
       <c r="B11" s="96" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="96" t="s">
         <v>1567</v>
       </c>
       <c r="B12" s="96" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="96" t="s">
         <v>1569</v>
       </c>
       <c r="B13" s="96" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="96" t="s">
+      <c r="C13" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="117" t="s">
         <v>1206</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="117" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="96" t="s">
+      <c r="C14" s="117">
+        <v>0</v>
+      </c>
+      <c r="D14" s="117"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="117" t="s">
         <v>1207</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="117" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="96" t="s">
+      <c r="C15" s="117">
+        <v>1</v>
+      </c>
+      <c r="D15" s="117"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="117" t="s">
         <v>1209</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="117" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="96" t="s">
+      <c r="C16" s="117">
+        <v>1</v>
+      </c>
+      <c r="D16" s="117"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="117" t="s">
         <v>1211</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="117" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="96" t="s">
+      <c r="C17" s="117">
+        <v>1</v>
+      </c>
+      <c r="D17" s="117"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="117" t="s">
         <v>1217</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="117" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="96" t="s">
+      <c r="C18" s="117">
+        <v>1</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="117" t="s">
         <v>1220</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="117" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="96" t="s">
+      <c r="C19" s="117">
+        <v>0</v>
+      </c>
+      <c r="D19" s="117" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="117" t="s">
         <v>1511</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="117" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="117">
+        <v>1</v>
+      </c>
+      <c r="D20" s="117"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="96" t="s">
         <v>1571</v>
       </c>
       <c r="B21" s="96" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="96" t="s">
         <v>1573</v>
       </c>
       <c r="B22" s="96" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="96" t="s">
         <v>1575</v>
       </c>
       <c r="B23" s="96" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="96" t="s">
         <v>1577</v>
       </c>
       <c r="B24" s="96" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="96" t="s">
         <v>1579</v>
       </c>
       <c r="B25" s="96" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="96" t="s">
         <v>1581</v>
       </c>
       <c r="B26" s="96" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="96" t="s">
         <v>1583</v>
       </c>
       <c r="B27" s="96" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="96" t="s">
         <v>1585</v>
       </c>
       <c r="B28" s="96" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="96" t="s">
         <v>1587</v>
       </c>
       <c r="B29" s="96" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="96" t="s">
         <v>1589</v>
       </c>
       <c r="B30" s="96" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="96" t="s">
         <v>1591</v>
       </c>
       <c r="B31" s="96" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="96" t="s">
         <v>1593</v>
       </c>
       <c r="B32" s="96" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="96" t="s">
         <v>1596</v>
       </c>
       <c r="B33" s="96" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="117" t="s">
+      <c r="C33" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="111" t="s">
         <v>1597</v>
       </c>
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="111" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="117" t="s">
+      <c r="C34" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="111" t="s">
         <v>1599</v>
       </c>
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="111" t="s">
         <v>1600</v>
+      </c>
+      <c r="C35" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="96" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B36" s="96" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C36" s="96">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8516,7 +8663,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/aes-api-enum-codes.xlsx
+++ b/aes-api-enum-codes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asara\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C44E31-643D-4180-85FB-3B354E0D3B3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C76E803-94D8-4E9E-A098-C1CBEFCEB1F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LIFE-CYCLE-EVENTS" sheetId="12" r:id="rId1"/>
-    <sheet name="CARRIERS" sheetId="13" r:id="rId2"/>
-    <sheet name="ERROR-CODES" sheetId="11" r:id="rId3"/>
+    <sheet name="ERROR-CODES" sheetId="11" r:id="rId1"/>
+    <sheet name="LIFE-CYCLE-EVENTS" sheetId="12" r:id="rId2"/>
+    <sheet name="CARRIERS" sheetId="13" r:id="rId3"/>
     <sheet name="VALIDATION-CODES" sheetId="14" r:id="rId4"/>
     <sheet name="MILESTONES" sheetId="3" r:id="rId5"/>
     <sheet name="TIMEZONES" sheetId="5" r:id="rId6"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="1622">
   <si>
     <t>CARRIER</t>
   </si>
@@ -5024,9 +5024,6 @@
     <t>INVALID CONTAINER NUMBER REQUIRED FOR QUERY</t>
   </si>
   <si>
-    <t xml:space="preserve">CARRIER DATA PURGED OR ARCHIVED </t>
-  </si>
-  <si>
     <t>CBL is Live for 45 DAYS (Default Limit)</t>
   </si>
   <si>
@@ -5037,13 +5034,64 @@
   </si>
   <si>
     <t>BOL- CNT MIS-MATCH</t>
+  </si>
+  <si>
+    <t>HAS-VALIDATION-CODES</t>
+  </si>
+  <si>
+    <t>HAS-SUGGESTIONS</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Can be that Carrier Booking Data is Purged or Archived</t>
+  </si>
+  <si>
+    <t>Discrepencies are typically resolved within 24 to 48 (hours) by support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The BOL manifest does not contain the queried valid container number. </t>
+  </si>
+  <si>
+    <t>For US bound shipments its recommended to check ISF and OAMS filings to prevent customs holds (H1)</t>
+  </si>
+  <si>
+    <t>CR100</t>
+  </si>
+  <si>
+    <t>CARRIER OUTAGE</t>
+  </si>
+  <si>
+    <t>CR101</t>
+  </si>
+  <si>
+    <t>CARRIER MODULE DOWN FOR MAINTENANCE</t>
+  </si>
+  <si>
+    <t>OPERATIONAL-AND-RELATED</t>
+  </si>
+  <si>
+    <t>Split Shipment Discrepencies may take longer to resolve.</t>
+  </si>
+  <si>
+    <t>CBL end of life status</t>
+  </si>
+  <si>
+    <t>EDI-303  BOOKING CANCELLATION FILED BY FF</t>
+  </si>
+  <si>
+    <t>EDI-300 - RESERVATION or EDI-304 SLI are not confirmed by FF or Carrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not all EDI-300 filings reserve containers. Before EDI-310 - FREIGHT RECEIPT </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5214,6 +5262,21 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5564,7 +5627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5814,7 +5877,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -5838,7 +5900,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6155,6 +6220,723 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE9C347-2D14-4B5A-8CD2-1FD0ECEBECB5}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="117" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="117" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="117" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="117" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="117" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.28515625" style="117" customWidth="1"/>
+    <col min="7" max="7" width="62.42578125" style="117" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="117"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="116" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="116" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E1" s="116" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F1" s="116" t="s">
+        <v>838</v>
+      </c>
+      <c r="G1" s="116" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="117" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C2" s="117">
+        <v>0</v>
+      </c>
+      <c r="D2" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E2" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="117" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C3" s="117">
+        <v>0</v>
+      </c>
+      <c r="D3" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E3" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="117" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B4" s="117" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C4" s="117">
+        <v>0</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E4" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="117" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C5" s="117">
+        <v>0</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E5" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="117" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B6" s="117" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C6" s="117">
+        <v>0</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E6" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="117" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B7" s="117" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C7" s="117">
+        <v>0</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E7" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="117" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B8" s="117" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C8" s="117">
+        <v>0</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E8" s="117" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="117" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B9" s="117" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C9" s="117">
+        <v>0</v>
+      </c>
+      <c r="D9" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E9" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="118" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C10" s="117">
+        <v>0</v>
+      </c>
+      <c r="D10" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E10" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="117" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B11" s="117" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C11" s="117">
+        <v>0</v>
+      </c>
+      <c r="D11" s="117" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E11" s="117" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="117" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B12" s="117" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C12" s="117">
+        <v>0</v>
+      </c>
+      <c r="D12" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E12" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="117" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B13" s="117" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C13" s="117">
+        <v>0</v>
+      </c>
+      <c r="D13" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E13" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="119" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B14" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="119">
+        <v>0</v>
+      </c>
+      <c r="D14" s="119" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E14" s="119" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F14" s="119" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G14" s="119" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="119" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B15" s="119" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C15" s="119">
+        <v>1</v>
+      </c>
+      <c r="D15" s="119" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E15" s="119" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F15" s="119" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G15" s="119" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="119" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B16" s="119" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C16" s="119">
+        <v>1</v>
+      </c>
+      <c r="D16" s="119" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F16" s="119" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G16" s="119" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="119" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B17" s="119" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C17" s="119">
+        <v>1</v>
+      </c>
+      <c r="D17" s="119" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="119" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B18" s="119" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C18" s="119">
+        <v>1</v>
+      </c>
+      <c r="D18" s="119" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E18" s="119" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F18" s="119" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G18" s="119"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="119" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B19" s="119" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C19" s="119">
+        <v>0</v>
+      </c>
+      <c r="D19" s="119" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E19" s="119" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F19" s="119" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G19" s="119" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="119" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B20" s="119" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C20" s="119">
+        <v>1</v>
+      </c>
+      <c r="D20" s="119" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E20" s="119" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="117" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B21" s="117" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C21" s="117">
+        <v>0</v>
+      </c>
+      <c r="D21" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E21" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="117" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B22" s="117" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C22" s="117">
+        <v>0</v>
+      </c>
+      <c r="D22" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E22" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="117" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B23" s="117" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C23" s="117">
+        <v>0</v>
+      </c>
+      <c r="D23" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E23" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="117" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B24" s="117" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C24" s="117">
+        <v>0</v>
+      </c>
+      <c r="D24" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E24" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="117" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B25" s="117" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C25" s="117">
+        <v>0</v>
+      </c>
+      <c r="D25" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E25" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="117" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B26" s="117" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C26" s="117">
+        <v>0</v>
+      </c>
+      <c r="D26" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E26" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="117" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B27" s="117" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C27" s="117">
+        <v>0</v>
+      </c>
+      <c r="D27" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E27" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="117" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B28" s="117" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C28" s="117">
+        <v>0</v>
+      </c>
+      <c r="D28" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E28" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="117" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B29" s="117" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C29" s="117">
+        <v>0</v>
+      </c>
+      <c r="D29" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E29" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="117" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B30" s="117" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C30" s="117">
+        <v>0</v>
+      </c>
+      <c r="D30" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E30" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="117" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B31" s="117" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C31" s="117">
+        <v>0</v>
+      </c>
+      <c r="D31" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E31" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="117" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B32" s="117" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C32" s="117">
+        <v>0</v>
+      </c>
+      <c r="D32" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E32" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="117" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B33" s="117" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C33" s="117">
+        <v>0</v>
+      </c>
+      <c r="D33" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E33" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="118" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B34" s="118" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C34" s="117">
+        <v>0</v>
+      </c>
+      <c r="D34" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E34" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="118" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B35" s="118" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C35" s="117">
+        <v>0</v>
+      </c>
+      <c r="D35" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E35" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="117" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B36" s="117" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C36" s="117">
+        <v>0</v>
+      </c>
+      <c r="D36" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E36" s="117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F36" s="117" t="s">
+        <v>1610</v>
+      </c>
+      <c r="G36" s="117" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="117" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B37" s="117" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C37" s="117">
+        <v>0</v>
+      </c>
+      <c r="D37" s="117" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E37" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="117" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B38" s="117" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C38" s="117">
+        <v>0</v>
+      </c>
+      <c r="D38" s="117" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E38" s="117" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF93ECB3-3A06-45C0-9380-F7FA602294BE}">
   <dimension ref="A1:F32"/>
   <sheetViews>
@@ -6175,465 +6957,465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>1009</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="108" t="s">
         <v>1010</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="108" t="s">
         <v>1237</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="108" t="s">
         <v>1227</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="109" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="105" t="s">
         <v>1020</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="106" t="s">
         <v>913</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="106" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>1097</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101" t="s">
+      <c r="C3" s="100"/>
+      <c r="D3" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="101"/>
+      <c r="F3" s="100"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="99" t="s">
         <v>1106</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>1107</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100" t="s">
         <v>1225</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="100" t="s">
         <v>1228</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="100" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>1021</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="100" t="s">
         <v>915</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101" t="s">
+      <c r="C5" s="100"/>
+      <c r="D5" s="100" t="s">
         <v>1225</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="100" t="s">
         <v>1228</v>
       </c>
-      <c r="F5" s="101"/>
+      <c r="F5" s="100"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>1022</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="100" t="s">
         <v>961</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100" t="s">
         <v>1225</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="100" t="s">
         <v>1228</v>
       </c>
-      <c r="F6" s="101"/>
+      <c r="F6" s="100"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="99" t="s">
         <v>1024</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>920</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100" t="s">
         <v>1225</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="100" t="s">
         <v>1228</v>
       </c>
-      <c r="F7" s="101"/>
+      <c r="F7" s="100"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>1025</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>922</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="100" t="s">
         <v>1225</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="100" t="s">
         <v>1229</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="100" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="99" t="s">
         <v>1026</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="100" t="s">
         <v>924</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="100" t="s">
         <v>1225</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="100" t="s">
         <v>1229</v>
       </c>
-      <c r="F9" s="101"/>
+      <c r="F9" s="100"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="100" t="s">
         <v>1059</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>955</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101" t="s">
+      <c r="C10" s="100"/>
+      <c r="D10" s="100" t="s">
         <v>1244</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="100" t="s">
         <v>1229</v>
       </c>
-      <c r="F10" s="101"/>
+      <c r="F10" s="100"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="99" t="s">
         <v>1028</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="100" t="s">
         <v>928</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101" t="s">
+      <c r="C11" s="100"/>
+      <c r="D11" s="100" t="s">
         <v>1244</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="100" t="s">
         <v>1229</v>
       </c>
-      <c r="F11" s="101"/>
+      <c r="F11" s="100"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="100" t="s">
         <v>1027</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="100" t="s">
         <v>926</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="100" t="s">
         <v>1244</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="100" t="s">
         <v>1229</v>
       </c>
-      <c r="F12" s="101"/>
+      <c r="F12" s="100"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="100" t="s">
         <v>934</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101" t="s">
+      <c r="C13" s="100"/>
+      <c r="D13" s="100" t="s">
         <v>1230</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="100" t="s">
         <v>1229</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="100" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="100" t="s">
         <v>1033</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101" t="s">
+      <c r="C14" s="100"/>
+      <c r="D14" s="100" t="s">
         <v>1230</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="100" t="s">
         <v>1229</v>
       </c>
-      <c r="F14" s="101" t="s">
+      <c r="F14" s="100" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="100" t="s">
         <v>1034</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="100" t="s">
         <v>886</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101" t="s">
+      <c r="C15" s="100"/>
+      <c r="D15" s="100" t="s">
         <v>1230</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="100" t="s">
         <v>1232</v>
       </c>
-      <c r="F15" s="101"/>
+      <c r="F15" s="100"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="100" t="s">
         <v>1035</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="100" t="s">
         <v>1036</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101" t="s">
+      <c r="C16" s="100"/>
+      <c r="D16" s="100" t="s">
         <v>1230</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="100" t="s">
         <v>1232</v>
       </c>
-      <c r="F16" s="101"/>
+      <c r="F16" s="100"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="100" t="s">
         <v>1037</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="100" t="s">
         <v>1038</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101" t="s">
+      <c r="C17" s="100"/>
+      <c r="D17" s="100" t="s">
         <v>1230</v>
       </c>
-      <c r="E17" s="101" t="s">
+      <c r="E17" s="100" t="s">
         <v>1232</v>
       </c>
-      <c r="F17" s="101"/>
+      <c r="F17" s="100"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="100" t="s">
         <v>1039</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="100" t="s">
         <v>1040</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101" t="s">
+      <c r="C18" s="100"/>
+      <c r="D18" s="100" t="s">
         <v>1230</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="100" t="s">
         <v>1232</v>
       </c>
-      <c r="F18" s="101" t="s">
+      <c r="F18" s="100" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="100" t="s">
         <v>1096</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="100" t="s">
         <v>989</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101" t="s">
+      <c r="C19" s="100"/>
+      <c r="D19" s="100" t="s">
         <v>1230</v>
       </c>
-      <c r="E19" s="101" t="s">
+      <c r="E19" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="101" t="s">
+      <c r="F19" s="100" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="100" t="s">
         <v>1032</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="100" t="s">
         <v>936</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101" t="s">
+      <c r="C20" s="100"/>
+      <c r="D20" s="100" t="s">
         <v>1230</v>
       </c>
-      <c r="E20" s="101" t="s">
+      <c r="E20" s="100" t="s">
         <v>1228</v>
       </c>
-      <c r="F20" s="101" t="s">
+      <c r="F20" s="100" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="99" t="s">
         <v>1057</v>
       </c>
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="100" t="s">
         <v>953</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="100" t="s">
         <v>1240</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="100" t="s">
         <v>1230</v>
       </c>
-      <c r="E21" s="101" t="s">
+      <c r="E21" s="100" t="s">
         <v>1228</v>
       </c>
-      <c r="F21" s="101"/>
+      <c r="F21" s="100"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="100" t="s">
         <v>1082</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="100" t="s">
         <v>909</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="100" t="s">
         <v>1241</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="100" t="s">
         <v>1230</v>
       </c>
-      <c r="E22" s="101" t="s">
+      <c r="E22" s="100" t="s">
         <v>1228</v>
       </c>
-      <c r="F22" s="101" t="s">
+      <c r="F22" s="100" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="100" t="s">
         <v>1041</v>
       </c>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="100" t="s">
         <v>1008</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="100" t="s">
         <v>1238</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="100" t="s">
         <v>1230</v>
       </c>
-      <c r="E23" s="101" t="s">
+      <c r="E23" s="100" t="s">
         <v>1228</v>
       </c>
-      <c r="F23" s="101" t="s">
+      <c r="F23" s="100" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="100" t="s">
         <v>1106</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="100" t="s">
         <v>1107</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="100" t="s">
         <v>1238</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="100" t="s">
         <v>1230</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="100" t="s">
         <v>1228</v>
       </c>
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="100" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="104" t="s">
         <v>1239</v>
       </c>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="100" t="s">
         <v>1128</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="100" t="s">
         <v>1238</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="100" t="s">
         <v>1230</v>
       </c>
-      <c r="E25" s="101" t="s">
+      <c r="E25" s="100" t="s">
         <v>1228</v>
       </c>
-      <c r="F25" s="101" t="s">
+      <c r="F25" s="100" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="100" t="s">
         <v>1101</v>
       </c>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="100" t="s">
         <v>1102</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="100" t="s">
         <v>1238</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="100" t="s">
         <v>1230</v>
       </c>
-      <c r="E26" s="101" t="s">
+      <c r="E26" s="100" t="s">
         <v>1228</v>
       </c>
-      <c r="F26" s="101" t="s">
+      <c r="F26" s="100" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="C32" s="101"/>
+      <c r="C32" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6641,7 +7423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52F191B-EACE-42AE-8CBE-03F10C1D77D6}">
   <dimension ref="A1:H73"/>
   <sheetViews>
@@ -6652,2004 +7434,1571 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="111" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="111" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="111" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="111" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" style="111" customWidth="1"/>
-    <col min="6" max="6" width="38" style="111" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" style="111" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="111" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="111"/>
+    <col min="1" max="1" width="23.7109375" style="110" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="110" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="110" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="110" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="110" customWidth="1"/>
+    <col min="6" max="6" width="38" style="110" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="110" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" style="110" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="110"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>1009</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="112" t="s">
         <v>1444</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="112" t="s">
         <v>1443</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="112" t="s">
         <v>1010</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="112" t="s">
         <v>1445</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="112" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="111" t="s">
         <v>1251</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="111" t="s">
         <v>1250</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111" t="s">
         <v>1251</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="111" t="s">
         <v>1252</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="111" t="s">
         <v>1248</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-    </row>
-    <row r="3" spans="1:8" s="114" customFormat="1">
-      <c r="A3" s="115" t="s">
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+    </row>
+    <row r="3" spans="1:8" s="113" customFormat="1">
+      <c r="A3" s="114" t="s">
         <v>1253</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="114" t="s">
         <v>1465</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="114" t="s">
         <v>1466</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="114" t="s">
         <v>1253</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="114" t="s">
         <v>1253</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-    </row>
-    <row r="4" spans="1:8" s="114" customFormat="1">
-      <c r="A4" s="115" t="s">
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+    </row>
+    <row r="4" spans="1:8" s="113" customFormat="1">
+      <c r="A4" s="114" t="s">
         <v>1255</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="114" t="s">
         <v>1254</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115" t="s">
+      <c r="C4" s="114"/>
+      <c r="D4" s="114" t="s">
         <v>1255</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="E4" s="114" t="s">
         <v>1256</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-    </row>
-    <row r="5" spans="1:8" s="114" customFormat="1">
-      <c r="A5" s="115" t="s">
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+    </row>
+    <row r="5" spans="1:8" s="113" customFormat="1">
+      <c r="A5" s="114" t="s">
         <v>1258</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="114" t="s">
         <v>1257</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="114" t="s">
         <v>1258</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="114" t="s">
         <v>1259</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-    </row>
-    <row r="6" spans="1:8" s="114" customFormat="1">
-      <c r="A6" s="115" t="s">
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+    </row>
+    <row r="6" spans="1:8" s="113" customFormat="1">
+      <c r="A6" s="114" t="s">
         <v>1494</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="114" t="s">
         <v>1260</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115" t="s">
+      <c r="C6" s="114"/>
+      <c r="D6" s="114" t="s">
         <v>1261</v>
       </c>
-      <c r="E6" s="115" t="s">
+      <c r="E6" s="114" t="s">
         <v>1262</v>
       </c>
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-    </row>
-    <row r="7" spans="1:8" s="114" customFormat="1">
-      <c r="A7" s="115" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+    </row>
+    <row r="7" spans="1:8" s="113" customFormat="1">
+      <c r="A7" s="114" t="s">
         <v>1264</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="114" t="s">
         <v>1263</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115" t="s">
+      <c r="C7" s="114"/>
+      <c r="D7" s="114" t="s">
         <v>1264</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="114" t="s">
         <v>1265</v>
       </c>
-      <c r="F7" s="115" t="s">
+      <c r="F7" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-    </row>
-    <row r="8" spans="1:8" s="114" customFormat="1">
-      <c r="A8" s="115" t="s">
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+    </row>
+    <row r="8" spans="1:8" s="113" customFormat="1">
+      <c r="A8" s="114" t="s">
         <v>1267</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="114" t="s">
         <v>1266</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115" t="s">
+      <c r="C8" s="114"/>
+      <c r="D8" s="114" t="s">
         <v>1267</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="114" t="s">
         <v>1268</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-    </row>
-    <row r="9" spans="1:8" s="114" customFormat="1">
-      <c r="A9" s="115" t="s">
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+    </row>
+    <row r="9" spans="1:8" s="113" customFormat="1">
+      <c r="A9" s="114" t="s">
         <v>1269</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="114" t="s">
         <v>1441</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="114" t="s">
         <v>1442</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="114" t="s">
         <v>1269</v>
       </c>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="114" t="s">
         <v>1270</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-    </row>
-    <row r="10" spans="1:8" s="114" customFormat="1">
-      <c r="A10" s="115" t="s">
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+    </row>
+    <row r="10" spans="1:8" s="113" customFormat="1">
+      <c r="A10" s="114" t="s">
         <v>1272</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="114" t="s">
         <v>1271</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="114" t="s">
         <v>1272</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="114" t="s">
         <v>1273</v>
       </c>
-      <c r="F10" s="115" t="s">
+      <c r="F10" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-    </row>
-    <row r="11" spans="1:8" s="114" customFormat="1">
-      <c r="A11" s="115" t="s">
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+    </row>
+    <row r="11" spans="1:8" s="113" customFormat="1">
+      <c r="A11" s="114" t="s">
         <v>1274</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="114" t="s">
         <v>1459</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="114" t="s">
         <v>1460</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="114" t="s">
         <v>1274</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="114" t="s">
         <v>1275</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G11" s="115" t="s">
+      <c r="G11" s="114" t="s">
         <v>1276</v>
       </c>
-      <c r="H11" s="115"/>
-    </row>
-    <row r="12" spans="1:8" s="114" customFormat="1">
-      <c r="A12" s="115" t="s">
+      <c r="H11" s="114"/>
+    </row>
+    <row r="12" spans="1:8" s="113" customFormat="1">
+      <c r="A12" s="114" t="s">
         <v>1278</v>
       </c>
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="114" t="s">
         <v>1277</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115" t="s">
+      <c r="C12" s="114"/>
+      <c r="D12" s="114" t="s">
         <v>1278</v>
       </c>
-      <c r="E12" s="115" t="s">
+      <c r="E12" s="114" t="s">
         <v>1279</v>
       </c>
-      <c r="F12" s="115" t="s">
+      <c r="F12" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-    </row>
-    <row r="13" spans="1:8" s="114" customFormat="1">
-      <c r="A13" s="115" t="s">
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+    </row>
+    <row r="13" spans="1:8" s="113" customFormat="1">
+      <c r="A13" s="114" t="s">
         <v>1280</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="114" t="s">
         <v>1463</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="114" t="s">
         <v>1464</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="114" t="s">
         <v>1280</v>
       </c>
-      <c r="E13" s="115" t="s">
+      <c r="E13" s="114" t="s">
         <v>1281</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G13" s="115" t="s">
+      <c r="G13" s="114" t="s">
         <v>1282</v>
       </c>
-      <c r="H13" s="115" t="s">
+      <c r="H13" s="114" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="114" customFormat="1">
-      <c r="A14" s="115" t="s">
+    <row r="14" spans="1:8" s="113" customFormat="1">
+      <c r="A14" s="114" t="s">
         <v>1283</v>
       </c>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="114" t="s">
         <v>1461</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="114" t="s">
         <v>1462</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="114" t="s">
         <v>1283</v>
       </c>
-      <c r="E14" s="115" t="s">
+      <c r="E14" s="114" t="s">
         <v>1284</v>
       </c>
-      <c r="F14" s="115" t="s">
+      <c r="F14" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-    </row>
-    <row r="15" spans="1:8" s="114" customFormat="1">
-      <c r="A15" s="115" t="s">
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+    </row>
+    <row r="15" spans="1:8" s="113" customFormat="1">
+      <c r="A15" s="114" t="s">
         <v>1286</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="114" t="s">
         <v>1285</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115" t="s">
+      <c r="C15" s="114"/>
+      <c r="D15" s="114" t="s">
         <v>1286</v>
       </c>
-      <c r="E15" s="115" t="s">
+      <c r="E15" s="114" t="s">
         <v>1287</v>
       </c>
-      <c r="F15" s="115" t="s">
+      <c r="F15" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-    </row>
-    <row r="16" spans="1:8" s="114" customFormat="1">
-      <c r="A16" s="115" t="s">
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+    </row>
+    <row r="16" spans="1:8" s="113" customFormat="1">
+      <c r="A16" s="114" t="s">
         <v>1289</v>
       </c>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="114" t="s">
         <v>1288</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115" t="s">
+      <c r="C16" s="114"/>
+      <c r="D16" s="114" t="s">
         <v>1289</v>
       </c>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="114" t="s">
         <v>1290</v>
       </c>
-      <c r="F16" s="115" t="s">
+      <c r="F16" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G16" s="115" t="s">
+      <c r="G16" s="114" t="s">
         <v>1276</v>
       </c>
-      <c r="H16" s="115"/>
-    </row>
-    <row r="17" spans="1:8" s="114" customFormat="1">
-      <c r="A17" s="115" t="s">
+      <c r="H16" s="114"/>
+    </row>
+    <row r="17" spans="1:8" s="113" customFormat="1">
+      <c r="A17" s="114" t="s">
         <v>1497</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="114" t="s">
         <v>1477</v>
       </c>
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="114" t="s">
         <v>1478</v>
       </c>
-      <c r="D17" s="115" t="s">
+      <c r="D17" s="114" t="s">
         <v>1291</v>
       </c>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="114" t="s">
         <v>1292</v>
       </c>
-      <c r="F17" s="115" t="s">
+      <c r="F17" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G17" s="115" t="s">
+      <c r="G17" s="114" t="s">
         <v>1293</v>
       </c>
-      <c r="H17" s="115"/>
-    </row>
-    <row r="18" spans="1:8" s="114" customFormat="1">
-      <c r="A18" s="115" t="s">
+      <c r="H17" s="114"/>
+    </row>
+    <row r="18" spans="1:8" s="113" customFormat="1">
+      <c r="A18" s="114" t="s">
         <v>1496</v>
       </c>
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="114" t="s">
         <v>1475</v>
       </c>
-      <c r="C18" s="115" t="s">
+      <c r="C18" s="114" t="s">
         <v>1476</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="114" t="s">
         <v>1294</v>
       </c>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="114" t="s">
         <v>1295</v>
       </c>
-      <c r="F18" s="115" t="s">
+      <c r="F18" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G18" s="115" t="s">
+      <c r="G18" s="114" t="s">
         <v>1293</v>
       </c>
-      <c r="H18" s="115"/>
-    </row>
-    <row r="19" spans="1:8" s="114" customFormat="1">
-      <c r="A19" s="115" t="s">
+      <c r="H18" s="114"/>
+    </row>
+    <row r="19" spans="1:8" s="113" customFormat="1">
+      <c r="A19" s="114" t="s">
         <v>1297</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="114" t="s">
         <v>1296</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="114"/>
+      <c r="D19" s="114" t="s">
         <v>1297</v>
       </c>
-      <c r="E19" s="115" t="s">
+      <c r="E19" s="114" t="s">
         <v>1298</v>
       </c>
-      <c r="F19" s="115" t="s">
+      <c r="F19" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-    </row>
-    <row r="20" spans="1:8" s="114" customFormat="1">
-      <c r="A20" s="115" t="s">
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+    </row>
+    <row r="20" spans="1:8" s="113" customFormat="1">
+      <c r="A20" s="114" t="s">
         <v>1299</v>
       </c>
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="114" t="s">
         <v>1473</v>
       </c>
-      <c r="C20" s="115" t="s">
+      <c r="C20" s="114" t="s">
         <v>1474</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D20" s="114" t="s">
         <v>1299</v>
       </c>
-      <c r="E20" s="115" t="s">
+      <c r="E20" s="114" t="s">
         <v>1300</v>
       </c>
-      <c r="F20" s="115" t="s">
+      <c r="F20" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-    </row>
-    <row r="21" spans="1:8" s="114" customFormat="1">
-      <c r="A21" s="115" t="s">
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+    </row>
+    <row r="21" spans="1:8" s="113" customFormat="1">
+      <c r="A21" s="114" t="s">
         <v>1302</v>
       </c>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="114" t="s">
         <v>1301</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115" t="s">
+      <c r="C21" s="114"/>
+      <c r="D21" s="114" t="s">
         <v>1302</v>
       </c>
-      <c r="E21" s="115" t="s">
+      <c r="E21" s="114" t="s">
         <v>1303</v>
       </c>
-      <c r="F21" s="115" t="s">
+      <c r="F21" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-    </row>
-    <row r="22" spans="1:8" s="114" customFormat="1">
-      <c r="A22" s="115" t="s">
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+    </row>
+    <row r="22" spans="1:8" s="113" customFormat="1">
+      <c r="A22" s="114" t="s">
         <v>1305</v>
       </c>
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="114" t="s">
         <v>1304</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115" t="s">
+      <c r="C22" s="114"/>
+      <c r="D22" s="114" t="s">
         <v>1305</v>
       </c>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="114" t="s">
         <v>1306</v>
       </c>
-      <c r="F22" s="115" t="s">
+      <c r="F22" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G22" s="115" t="s">
+      <c r="G22" s="114" t="s">
         <v>1293</v>
       </c>
-      <c r="H22" s="115"/>
-    </row>
-    <row r="23" spans="1:8" s="114" customFormat="1">
-      <c r="A23" s="115" t="s">
+      <c r="H22" s="114"/>
+    </row>
+    <row r="23" spans="1:8" s="113" customFormat="1">
+      <c r="A23" s="114" t="s">
         <v>1308</v>
       </c>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="114" t="s">
         <v>1307</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115" t="s">
+      <c r="C23" s="114"/>
+      <c r="D23" s="114" t="s">
         <v>1308</v>
       </c>
-      <c r="E23" s="115" t="s">
+      <c r="E23" s="114" t="s">
         <v>1309</v>
       </c>
-      <c r="F23" s="115" t="s">
+      <c r="F23" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-    </row>
-    <row r="24" spans="1:8" s="114" customFormat="1">
-      <c r="A24" s="115" t="s">
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+    </row>
+    <row r="24" spans="1:8" s="113" customFormat="1">
+      <c r="A24" s="114" t="s">
         <v>1311</v>
       </c>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="114" t="s">
         <v>1310</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115" t="s">
+      <c r="C24" s="114"/>
+      <c r="D24" s="114" t="s">
         <v>1311</v>
       </c>
-      <c r="E24" s="115" t="s">
+      <c r="E24" s="114" t="s">
         <v>1312</v>
       </c>
-      <c r="F24" s="115" t="s">
+      <c r="F24" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-    </row>
-    <row r="25" spans="1:8" s="114" customFormat="1">
-      <c r="A25" s="115" t="s">
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+    </row>
+    <row r="25" spans="1:8" s="113" customFormat="1">
+      <c r="A25" s="114" t="s">
         <v>1314</v>
       </c>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="114" t="s">
         <v>1313</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115" t="s">
+      <c r="C25" s="114"/>
+      <c r="D25" s="114" t="s">
         <v>1314</v>
       </c>
-      <c r="E25" s="115" t="s">
+      <c r="E25" s="114" t="s">
         <v>1315</v>
       </c>
-      <c r="F25" s="115" t="s">
+      <c r="F25" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-    </row>
-    <row r="26" spans="1:8" s="114" customFormat="1">
-      <c r="A26" s="115" t="s">
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+    </row>
+    <row r="26" spans="1:8" s="113" customFormat="1">
+      <c r="A26" s="114" t="s">
         <v>1495</v>
       </c>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="114" t="s">
         <v>1471</v>
       </c>
-      <c r="C26" s="115" t="s">
+      <c r="C26" s="114" t="s">
         <v>1472</v>
       </c>
-      <c r="D26" s="115" t="s">
+      <c r="D26" s="114" t="s">
         <v>1316</v>
       </c>
-      <c r="E26" s="115" t="s">
+      <c r="E26" s="114" t="s">
         <v>1317</v>
       </c>
-      <c r="F26" s="115" t="s">
+      <c r="F26" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-    </row>
-    <row r="27" spans="1:8" s="114" customFormat="1">
-      <c r="A27" s="115" t="s">
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+    </row>
+    <row r="27" spans="1:8" s="113" customFormat="1">
+      <c r="A27" s="114" t="s">
         <v>1319</v>
       </c>
-      <c r="B27" s="115" t="s">
+      <c r="B27" s="114" t="s">
         <v>1318</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115" t="s">
+      <c r="C27" s="114"/>
+      <c r="D27" s="114" t="s">
         <v>1319</v>
       </c>
-      <c r="E27" s="115" t="s">
+      <c r="E27" s="114" t="s">
         <v>1320</v>
       </c>
-      <c r="F27" s="115" t="s">
+      <c r="F27" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G27" s="115" t="s">
+      <c r="G27" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H27" s="115"/>
-    </row>
-    <row r="28" spans="1:8" s="114" customFormat="1">
-      <c r="A28" s="115" t="s">
+      <c r="H27" s="114"/>
+    </row>
+    <row r="28" spans="1:8" s="113" customFormat="1">
+      <c r="A28" s="114" t="s">
         <v>1501</v>
       </c>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="114" t="s">
         <v>1467</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="114" t="s">
         <v>1468</v>
       </c>
-      <c r="D28" s="115" t="s">
+      <c r="D28" s="114" t="s">
         <v>1322</v>
       </c>
-      <c r="E28" s="115" t="s">
+      <c r="E28" s="114" t="s">
         <v>1323</v>
       </c>
-      <c r="F28" s="115" t="s">
+      <c r="F28" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G28" s="115" t="s">
+      <c r="G28" s="114" t="s">
         <v>1274</v>
       </c>
-      <c r="H28" s="115"/>
-    </row>
-    <row r="29" spans="1:8" s="114" customFormat="1">
-      <c r="A29" s="115" t="s">
+      <c r="H28" s="114"/>
+    </row>
+    <row r="29" spans="1:8" s="113" customFormat="1">
+      <c r="A29" s="114" t="s">
         <v>1324</v>
       </c>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="114" t="s">
         <v>1469</v>
       </c>
-      <c r="C29" s="115" t="s">
+      <c r="C29" s="114" t="s">
         <v>1470</v>
       </c>
-      <c r="D29" s="115" t="s">
+      <c r="D29" s="114" t="s">
         <v>1324</v>
       </c>
-      <c r="E29" s="115" t="s">
+      <c r="E29" s="114" t="s">
         <v>1325</v>
       </c>
-      <c r="F29" s="115" t="s">
+      <c r="F29" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-    </row>
-    <row r="30" spans="1:8" s="114" customFormat="1">
-      <c r="A30" s="115" t="s">
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+    </row>
+    <row r="30" spans="1:8" s="113" customFormat="1">
+      <c r="A30" s="114" t="s">
         <v>1327</v>
       </c>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="114" t="s">
         <v>1326</v>
       </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115" t="s">
+      <c r="C30" s="114"/>
+      <c r="D30" s="114" t="s">
         <v>1327</v>
       </c>
-      <c r="E30" s="115" t="s">
+      <c r="E30" s="114" t="s">
         <v>1328</v>
       </c>
-      <c r="F30" s="115" t="s">
+      <c r="F30" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G30" s="115" t="s">
+      <c r="G30" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H30" s="115"/>
-    </row>
-    <row r="31" spans="1:8" s="114" customFormat="1">
-      <c r="A31" s="115" t="s">
+      <c r="H30" s="114"/>
+    </row>
+    <row r="31" spans="1:8" s="113" customFormat="1">
+      <c r="A31" s="114" t="s">
         <v>1498</v>
       </c>
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="114" t="s">
         <v>1329</v>
       </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115" t="s">
+      <c r="C31" s="114"/>
+      <c r="D31" s="114" t="s">
         <v>1330</v>
       </c>
-      <c r="E31" s="115" t="s">
+      <c r="E31" s="114" t="s">
         <v>1331</v>
       </c>
-      <c r="F31" s="115" t="s">
+      <c r="F31" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-    </row>
-    <row r="32" spans="1:8" s="114" customFormat="1">
-      <c r="A32" s="115" t="s">
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+    </row>
+    <row r="32" spans="1:8" s="113" customFormat="1">
+      <c r="A32" s="114" t="s">
         <v>1333</v>
       </c>
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="114" t="s">
         <v>1332</v>
       </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115" t="s">
+      <c r="C32" s="114"/>
+      <c r="D32" s="114" t="s">
         <v>1333</v>
       </c>
-      <c r="E32" s="115" t="s">
+      <c r="E32" s="114" t="s">
         <v>1334</v>
       </c>
-      <c r="F32" s="115" t="s">
+      <c r="F32" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G32" s="115" t="s">
+      <c r="G32" s="114" t="s">
         <v>1335</v>
       </c>
-      <c r="H32" s="115"/>
-    </row>
-    <row r="33" spans="1:8" s="114" customFormat="1">
-      <c r="A33" s="115" t="s">
+      <c r="H32" s="114"/>
+    </row>
+    <row r="33" spans="1:8" s="113" customFormat="1">
+      <c r="A33" s="114" t="s">
         <v>1337</v>
       </c>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="114" t="s">
         <v>1336</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115" t="s">
+      <c r="C33" s="114"/>
+      <c r="D33" s="114" t="s">
         <v>1337</v>
       </c>
-      <c r="E33" s="115" t="s">
+      <c r="E33" s="114" t="s">
         <v>1338</v>
       </c>
-      <c r="F33" s="115" t="s">
+      <c r="F33" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-    </row>
-    <row r="34" spans="1:8" s="114" customFormat="1">
-      <c r="A34" s="115" t="s">
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+    </row>
+    <row r="34" spans="1:8" s="113" customFormat="1">
+      <c r="A34" s="114" t="s">
         <v>1339</v>
       </c>
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="114" t="s">
         <v>1448</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="114" t="s">
         <v>1449</v>
       </c>
-      <c r="D34" s="115" t="s">
+      <c r="D34" s="114" t="s">
         <v>1339</v>
       </c>
-      <c r="E34" s="115" t="s">
+      <c r="E34" s="114" t="s">
         <v>1340</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G34" s="115" t="s">
+      <c r="G34" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H34" s="115"/>
-    </row>
-    <row r="35" spans="1:8" s="114" customFormat="1">
-      <c r="A35" s="115" t="s">
+      <c r="H34" s="114"/>
+    </row>
+    <row r="35" spans="1:8" s="113" customFormat="1">
+      <c r="A35" s="114" t="s">
         <v>1342</v>
       </c>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="114" t="s">
         <v>1341</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115" t="s">
+      <c r="C35" s="114"/>
+      <c r="D35" s="114" t="s">
         <v>1342</v>
       </c>
-      <c r="E35" s="115" t="s">
+      <c r="E35" s="114" t="s">
         <v>1343</v>
       </c>
-      <c r="F35" s="115" t="s">
+      <c r="F35" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G35" s="115" t="s">
+      <c r="G35" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H35" s="115"/>
-    </row>
-    <row r="36" spans="1:8" s="114" customFormat="1">
-      <c r="A36" s="115" t="s">
+      <c r="H35" s="114"/>
+    </row>
+    <row r="36" spans="1:8" s="113" customFormat="1">
+      <c r="A36" s="114" t="s">
         <v>1344</v>
       </c>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="114" t="s">
         <v>1450</v>
       </c>
-      <c r="C36" s="115" t="s">
+      <c r="C36" s="114" t="s">
         <v>1451</v>
       </c>
-      <c r="D36" s="115" t="s">
+      <c r="D36" s="114" t="s">
         <v>1344</v>
       </c>
-      <c r="E36" s="115" t="s">
+      <c r="E36" s="114" t="s">
         <v>1345</v>
       </c>
-      <c r="F36" s="115" t="s">
+      <c r="F36" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G36" s="115" t="s">
+      <c r="G36" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H36" s="115"/>
-    </row>
-    <row r="37" spans="1:8" s="114" customFormat="1">
-      <c r="A37" s="115" t="s">
+      <c r="H36" s="114"/>
+    </row>
+    <row r="37" spans="1:8" s="113" customFormat="1">
+      <c r="A37" s="114" t="s">
         <v>1347</v>
       </c>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="114" t="s">
         <v>1346</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115" t="s">
+      <c r="C37" s="114"/>
+      <c r="D37" s="114" t="s">
         <v>1347</v>
       </c>
-      <c r="E37" s="115" t="s">
+      <c r="E37" s="114" t="s">
         <v>1348</v>
       </c>
-      <c r="F37" s="115" t="s">
+      <c r="F37" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G37" s="115" t="s">
+      <c r="G37" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H37" s="115"/>
-    </row>
-    <row r="38" spans="1:8" s="114" customFormat="1">
-      <c r="A38" s="115" t="s">
+      <c r="H37" s="114"/>
+    </row>
+    <row r="38" spans="1:8" s="113" customFormat="1">
+      <c r="A38" s="114" t="s">
         <v>1350</v>
       </c>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="114" t="s">
         <v>1349</v>
       </c>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115" t="s">
+      <c r="C38" s="114"/>
+      <c r="D38" s="114" t="s">
         <v>1350</v>
       </c>
-      <c r="E38" s="115" t="s">
+      <c r="E38" s="114" t="s">
         <v>1351</v>
       </c>
-      <c r="F38" s="115" t="s">
+      <c r="F38" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G38" s="115" t="s">
+      <c r="G38" s="114" t="s">
         <v>1335</v>
       </c>
-      <c r="H38" s="115"/>
-    </row>
-    <row r="39" spans="1:8" s="114" customFormat="1">
-      <c r="A39" s="115" t="s">
+      <c r="H38" s="114"/>
+    </row>
+    <row r="39" spans="1:8" s="113" customFormat="1">
+      <c r="A39" s="114" t="s">
         <v>1353</v>
       </c>
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="114" t="s">
         <v>1352</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115" t="s">
+      <c r="C39" s="114"/>
+      <c r="D39" s="114" t="s">
         <v>1353</v>
       </c>
-      <c r="E39" s="115" t="s">
+      <c r="E39" s="114" t="s">
         <v>1354</v>
       </c>
-      <c r="F39" s="115" t="s">
+      <c r="F39" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-    </row>
-    <row r="40" spans="1:8" s="114" customFormat="1">
-      <c r="A40" s="115" t="s">
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+    </row>
+    <row r="40" spans="1:8" s="113" customFormat="1">
+      <c r="A40" s="114" t="s">
         <v>1356</v>
       </c>
-      <c r="B40" s="115" t="s">
+      <c r="B40" s="114" t="s">
         <v>1355</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115" t="s">
+      <c r="C40" s="114"/>
+      <c r="D40" s="114" t="s">
         <v>1356</v>
       </c>
-      <c r="E40" s="115" t="s">
+      <c r="E40" s="114" t="s">
         <v>1357</v>
       </c>
-      <c r="F40" s="115" t="s">
+      <c r="F40" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G40" s="115" t="s">
+      <c r="G40" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H40" s="115"/>
-    </row>
-    <row r="41" spans="1:8" s="114" customFormat="1">
-      <c r="A41" s="115" t="s">
+      <c r="H40" s="114"/>
+    </row>
+    <row r="41" spans="1:8" s="113" customFormat="1">
+      <c r="A41" s="114" t="s">
         <v>1499</v>
       </c>
-      <c r="B41" s="115" t="s">
+      <c r="B41" s="114" t="s">
         <v>1358</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115" t="s">
+      <c r="C41" s="114"/>
+      <c r="D41" s="114" t="s">
         <v>1359</v>
       </c>
-      <c r="E41" s="115" t="s">
+      <c r="E41" s="114" t="s">
         <v>1360</v>
       </c>
-      <c r="F41" s="115" t="s">
+      <c r="F41" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G41" s="115" t="s">
+      <c r="G41" s="114" t="s">
         <v>1361</v>
       </c>
-      <c r="H41" s="115"/>
-    </row>
-    <row r="42" spans="1:8" s="114" customFormat="1">
-      <c r="A42" s="115" t="s">
+      <c r="H41" s="114"/>
+    </row>
+    <row r="42" spans="1:8" s="113" customFormat="1">
+      <c r="A42" s="114" t="s">
         <v>1246</v>
       </c>
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="114" t="s">
         <v>1452</v>
       </c>
-      <c r="C42" s="115" t="s">
+      <c r="C42" s="114" t="s">
         <v>1453</v>
       </c>
-      <c r="D42" s="115" t="s">
+      <c r="D42" s="114" t="s">
         <v>1246</v>
       </c>
-      <c r="E42" s="115" t="s">
+      <c r="E42" s="114" t="s">
         <v>1247</v>
       </c>
-      <c r="F42" s="115" t="s">
+      <c r="F42" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115" t="s">
+      <c r="G42" s="114"/>
+      <c r="H42" s="114" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="114" customFormat="1">
-      <c r="A43" s="115" t="s">
+    <row r="43" spans="1:8" s="113" customFormat="1">
+      <c r="A43" s="114" t="s">
         <v>1363</v>
       </c>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="114" t="s">
         <v>1362</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115" t="s">
+      <c r="C43" s="114"/>
+      <c r="D43" s="114" t="s">
         <v>1363</v>
       </c>
-      <c r="E43" s="115" t="s">
+      <c r="E43" s="114" t="s">
         <v>1364</v>
       </c>
-      <c r="F43" s="115" t="s">
+      <c r="F43" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G43" s="115" t="s">
+      <c r="G43" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H43" s="115"/>
-    </row>
-    <row r="44" spans="1:8" s="114" customFormat="1">
-      <c r="A44" s="115" t="s">
+      <c r="H43" s="114"/>
+    </row>
+    <row r="44" spans="1:8" s="113" customFormat="1">
+      <c r="A44" s="114" t="s">
         <v>1500</v>
       </c>
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="114" t="s">
         <v>1365</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115" t="s">
+      <c r="C44" s="114"/>
+      <c r="D44" s="114" t="s">
         <v>1366</v>
       </c>
-      <c r="E44" s="115" t="s">
+      <c r="E44" s="114" t="s">
         <v>1367</v>
       </c>
-      <c r="F44" s="115" t="s">
+      <c r="F44" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G44" s="115" t="s">
+      <c r="G44" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H44" s="115"/>
-    </row>
-    <row r="45" spans="1:8" s="114" customFormat="1">
-      <c r="A45" s="115" t="s">
+      <c r="H44" s="114"/>
+    </row>
+    <row r="45" spans="1:8" s="113" customFormat="1">
+      <c r="A45" s="114" t="s">
         <v>1369</v>
       </c>
-      <c r="B45" s="115" t="s">
+      <c r="B45" s="114" t="s">
         <v>1368</v>
       </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115" t="s">
+      <c r="C45" s="114"/>
+      <c r="D45" s="114" t="s">
         <v>1369</v>
       </c>
-      <c r="E45" s="115" t="s">
+      <c r="E45" s="114" t="s">
         <v>1369</v>
       </c>
-      <c r="F45" s="115" t="s">
+      <c r="F45" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G45" s="115" t="s">
+      <c r="G45" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H45" s="115"/>
-    </row>
-    <row r="46" spans="1:8" s="114" customFormat="1">
-      <c r="A46" s="115" t="s">
+      <c r="H45" s="114"/>
+    </row>
+    <row r="46" spans="1:8" s="113" customFormat="1">
+      <c r="A46" s="114" t="s">
         <v>1371</v>
       </c>
-      <c r="B46" s="115" t="s">
+      <c r="B46" s="114" t="s">
         <v>1370</v>
       </c>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115" t="s">
+      <c r="C46" s="114"/>
+      <c r="D46" s="114" t="s">
         <v>1371</v>
       </c>
-      <c r="E46" s="115" t="s">
+      <c r="E46" s="114" t="s">
         <v>1372</v>
       </c>
-      <c r="F46" s="115" t="s">
+      <c r="F46" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G46" s="115" t="s">
+      <c r="G46" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H46" s="115"/>
-    </row>
-    <row r="47" spans="1:8" s="114" customFormat="1">
-      <c r="A47" s="115" t="s">
+      <c r="H46" s="114"/>
+    </row>
+    <row r="47" spans="1:8" s="113" customFormat="1">
+      <c r="A47" s="114" t="s">
         <v>1374</v>
       </c>
-      <c r="B47" s="115" t="s">
+      <c r="B47" s="114" t="s">
         <v>1373</v>
       </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115" t="s">
+      <c r="C47" s="114"/>
+      <c r="D47" s="114" t="s">
         <v>1374</v>
       </c>
-      <c r="E47" s="115" t="s">
+      <c r="E47" s="114" t="s">
         <v>1375</v>
       </c>
-      <c r="F47" s="115" t="s">
+      <c r="F47" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G47" s="115" t="s">
+      <c r="G47" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H47" s="115"/>
-    </row>
-    <row r="48" spans="1:8" s="114" customFormat="1">
-      <c r="A48" s="115" t="s">
+      <c r="H47" s="114"/>
+    </row>
+    <row r="48" spans="1:8" s="113" customFormat="1">
+      <c r="A48" s="114" t="s">
         <v>1377</v>
       </c>
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="114" t="s">
         <v>1376</v>
       </c>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115" t="s">
+      <c r="C48" s="114"/>
+      <c r="D48" s="114" t="s">
         <v>1377</v>
       </c>
-      <c r="E48" s="115" t="s">
+      <c r="E48" s="114" t="s">
         <v>1378</v>
       </c>
-      <c r="F48" s="115" t="s">
+      <c r="F48" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G48" s="115" t="s">
+      <c r="G48" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H48" s="115"/>
-    </row>
-    <row r="49" spans="1:8" s="114" customFormat="1">
-      <c r="A49" s="115" t="s">
+      <c r="H48" s="114"/>
+    </row>
+    <row r="49" spans="1:8" s="113" customFormat="1">
+      <c r="A49" s="114" t="s">
         <v>1380</v>
       </c>
-      <c r="B49" s="115" t="s">
+      <c r="B49" s="114" t="s">
         <v>1379</v>
       </c>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115" t="s">
+      <c r="C49" s="114"/>
+      <c r="D49" s="114" t="s">
         <v>1380</v>
       </c>
-      <c r="E49" s="115" t="s">
+      <c r="E49" s="114" t="s">
         <v>1381</v>
       </c>
-      <c r="F49" s="115" t="s">
+      <c r="F49" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G49" s="115" t="s">
+      <c r="G49" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H49" s="115"/>
-    </row>
-    <row r="50" spans="1:8" s="114" customFormat="1">
-      <c r="A50" s="115" t="s">
+      <c r="H49" s="114"/>
+    </row>
+    <row r="50" spans="1:8" s="113" customFormat="1">
+      <c r="A50" s="114" t="s">
         <v>1383</v>
       </c>
-      <c r="B50" s="115" t="s">
+      <c r="B50" s="114" t="s">
         <v>1382</v>
       </c>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115" t="s">
+      <c r="C50" s="114"/>
+      <c r="D50" s="114" t="s">
         <v>1383</v>
       </c>
-      <c r="E50" s="115" t="s">
+      <c r="E50" s="114" t="s">
         <v>1384</v>
       </c>
-      <c r="F50" s="115" t="s">
+      <c r="F50" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G50" s="115" t="s">
+      <c r="G50" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H50" s="115"/>
-    </row>
-    <row r="51" spans="1:8" s="114" customFormat="1">
-      <c r="A51" s="115" t="s">
+      <c r="H50" s="114"/>
+    </row>
+    <row r="51" spans="1:8" s="113" customFormat="1">
+      <c r="A51" s="114" t="s">
         <v>1386</v>
       </c>
-      <c r="B51" s="115" t="s">
+      <c r="B51" s="114" t="s">
         <v>1385</v>
       </c>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115" t="s">
+      <c r="C51" s="114"/>
+      <c r="D51" s="114" t="s">
         <v>1386</v>
       </c>
-      <c r="E51" s="115" t="s">
+      <c r="E51" s="114" t="s">
         <v>1387</v>
       </c>
-      <c r="F51" s="115" t="s">
+      <c r="F51" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G51" s="115" t="s">
+      <c r="G51" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H51" s="115"/>
-    </row>
-    <row r="52" spans="1:8" s="114" customFormat="1">
-      <c r="A52" s="115" t="s">
+      <c r="H51" s="114"/>
+    </row>
+    <row r="52" spans="1:8" s="113" customFormat="1">
+      <c r="A52" s="114" t="s">
         <v>1389</v>
       </c>
-      <c r="B52" s="115" t="s">
+      <c r="B52" s="114" t="s">
         <v>1388</v>
       </c>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115" t="s">
+      <c r="C52" s="114"/>
+      <c r="D52" s="114" t="s">
         <v>1389</v>
       </c>
-      <c r="E52" s="115" t="s">
+      <c r="E52" s="114" t="s">
         <v>1390</v>
       </c>
-      <c r="F52" s="115" t="s">
+      <c r="F52" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G52" s="115" t="s">
+      <c r="G52" s="114" t="s">
         <v>1391</v>
       </c>
-      <c r="H52" s="115" t="s">
+      <c r="H52" s="114" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="114" customFormat="1">
-      <c r="A53" s="115" t="s">
+    <row r="53" spans="1:8" s="113" customFormat="1">
+      <c r="A53" s="114" t="s">
         <v>1392</v>
       </c>
-      <c r="B53" s="115" t="s">
+      <c r="B53" s="114" t="s">
         <v>1392</v>
       </c>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115" t="s">
+      <c r="C53" s="114"/>
+      <c r="D53" s="114" t="s">
         <v>1393</v>
       </c>
-      <c r="E53" s="115" t="s">
+      <c r="E53" s="114" t="s">
         <v>1394</v>
       </c>
-      <c r="F53" s="115" t="s">
+      <c r="F53" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G53" s="115" t="s">
+      <c r="G53" s="114" t="s">
         <v>1395</v>
       </c>
-      <c r="H53" s="115"/>
-    </row>
-    <row r="54" spans="1:8" s="114" customFormat="1">
-      <c r="A54" s="115" t="s">
+      <c r="H53" s="114"/>
+    </row>
+    <row r="54" spans="1:8" s="113" customFormat="1">
+      <c r="A54" s="114" t="s">
         <v>1503</v>
       </c>
-      <c r="B54" s="115" t="s">
+      <c r="B54" s="114" t="s">
         <v>1396</v>
       </c>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115" t="s">
+      <c r="C54" s="114"/>
+      <c r="D54" s="114" t="s">
         <v>1397</v>
       </c>
-      <c r="E54" s="115" t="s">
+      <c r="E54" s="114" t="s">
         <v>1398</v>
       </c>
-      <c r="F54" s="115" t="s">
+      <c r="F54" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G54" s="115" t="s">
+      <c r="G54" s="114" t="s">
         <v>1321</v>
       </c>
-      <c r="H54" s="115"/>
-    </row>
-    <row r="55" spans="1:8" s="114" customFormat="1">
-      <c r="A55" s="115" t="s">
+      <c r="H54" s="114"/>
+    </row>
+    <row r="55" spans="1:8" s="113" customFormat="1">
+      <c r="A55" s="114" t="s">
         <v>1502</v>
       </c>
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="114" t="s">
         <v>1399</v>
       </c>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115" t="s">
+      <c r="C55" s="114"/>
+      <c r="D55" s="114" t="s">
         <v>1400</v>
       </c>
-      <c r="E55" s="115" t="s">
+      <c r="E55" s="114" t="s">
         <v>1401</v>
       </c>
-      <c r="F55" s="115" t="s">
+      <c r="F55" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G55" s="115"/>
-      <c r="H55" s="115"/>
-    </row>
-    <row r="56" spans="1:8" s="114" customFormat="1">
-      <c r="A56" s="115" t="s">
+      <c r="G55" s="114"/>
+      <c r="H55" s="114"/>
+    </row>
+    <row r="56" spans="1:8" s="113" customFormat="1">
+      <c r="A56" s="114" t="s">
         <v>1403</v>
       </c>
-      <c r="B56" s="115" t="s">
+      <c r="B56" s="114" t="s">
         <v>1402</v>
       </c>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115" t="s">
+      <c r="C56" s="114"/>
+      <c r="D56" s="114" t="s">
         <v>1403</v>
       </c>
-      <c r="E56" s="115" t="s">
+      <c r="E56" s="114" t="s">
         <v>1404</v>
       </c>
-      <c r="F56" s="115" t="s">
+      <c r="F56" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G56" s="115" t="s">
+      <c r="G56" s="114" t="s">
         <v>1405</v>
       </c>
-      <c r="H56" s="115"/>
-    </row>
-    <row r="57" spans="1:8" s="114" customFormat="1">
-      <c r="A57" s="115" t="s">
+      <c r="H56" s="114"/>
+    </row>
+    <row r="57" spans="1:8" s="113" customFormat="1">
+      <c r="A57" s="114" t="s">
         <v>1506</v>
       </c>
-      <c r="B57" s="115" t="s">
+      <c r="B57" s="114" t="s">
         <v>1406</v>
       </c>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115" t="s">
+      <c r="C57" s="114"/>
+      <c r="D57" s="114" t="s">
         <v>1407</v>
       </c>
-      <c r="E57" s="115" t="s">
+      <c r="E57" s="114" t="s">
         <v>1408</v>
       </c>
-      <c r="F57" s="115" t="s">
+      <c r="F57" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G57" s="115"/>
-      <c r="H57" s="115"/>
-    </row>
-    <row r="58" spans="1:8" s="114" customFormat="1">
-      <c r="A58" s="115" t="s">
+      <c r="G57" s="114"/>
+      <c r="H57" s="114"/>
+    </row>
+    <row r="58" spans="1:8" s="113" customFormat="1">
+      <c r="A58" s="114" t="s">
         <v>1410</v>
       </c>
-      <c r="B58" s="115" t="s">
+      <c r="B58" s="114" t="s">
         <v>1409</v>
       </c>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115" t="s">
+      <c r="C58" s="114"/>
+      <c r="D58" s="114" t="s">
         <v>1410</v>
       </c>
-      <c r="E58" s="115" t="s">
+      <c r="E58" s="114" t="s">
         <v>1411</v>
       </c>
-      <c r="F58" s="115" t="s">
+      <c r="F58" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G58" s="115"/>
-      <c r="H58" s="115"/>
-    </row>
-    <row r="59" spans="1:8" s="114" customFormat="1">
-      <c r="A59" s="115" t="s">
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+    </row>
+    <row r="59" spans="1:8" s="113" customFormat="1">
+      <c r="A59" s="114" t="s">
         <v>1505</v>
       </c>
-      <c r="B59" s="115" t="s">
+      <c r="B59" s="114" t="s">
         <v>1412</v>
       </c>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115" t="s">
+      <c r="C59" s="114"/>
+      <c r="D59" s="114" t="s">
         <v>1413</v>
       </c>
-      <c r="E59" s="115" t="s">
+      <c r="E59" s="114" t="s">
         <v>1414</v>
       </c>
-      <c r="F59" s="115" t="s">
+      <c r="F59" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G59" s="115" t="s">
+      <c r="G59" s="114" t="s">
         <v>1415</v>
       </c>
-      <c r="H59" s="115"/>
-    </row>
-    <row r="60" spans="1:8" s="114" customFormat="1">
-      <c r="A60" s="115" t="s">
+      <c r="H59" s="114"/>
+    </row>
+    <row r="60" spans="1:8" s="113" customFormat="1">
+      <c r="A60" s="114" t="s">
         <v>1417</v>
       </c>
-      <c r="B60" s="115" t="s">
+      <c r="B60" s="114" t="s">
         <v>1416</v>
       </c>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115" t="s">
+      <c r="C60" s="114"/>
+      <c r="D60" s="114" t="s">
         <v>1417</v>
       </c>
-      <c r="E60" s="115" t="s">
+      <c r="E60" s="114" t="s">
         <v>1418</v>
       </c>
-      <c r="F60" s="115" t="s">
+      <c r="F60" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G60" s="115"/>
-      <c r="H60" s="115"/>
-    </row>
-    <row r="61" spans="1:8" s="114" customFormat="1">
-      <c r="A61" s="115" t="s">
+      <c r="G60" s="114"/>
+      <c r="H60" s="114"/>
+    </row>
+    <row r="61" spans="1:8" s="113" customFormat="1">
+      <c r="A61" s="114" t="s">
         <v>1504</v>
       </c>
-      <c r="B61" s="115" t="s">
+      <c r="B61" s="114" t="s">
         <v>1447</v>
       </c>
-      <c r="C61" s="115" t="s">
+      <c r="C61" s="114" t="s">
         <v>1456</v>
       </c>
-      <c r="D61" s="115" t="s">
+      <c r="D61" s="114" t="s">
         <v>1419</v>
       </c>
-      <c r="E61" s="115" t="s">
+      <c r="E61" s="114" t="s">
         <v>1420</v>
       </c>
-      <c r="F61" s="115" t="s">
+      <c r="F61" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G61" s="115"/>
-      <c r="H61" s="115"/>
-    </row>
-    <row r="62" spans="1:8" s="114" customFormat="1">
-      <c r="A62" s="115" t="s">
+      <c r="G61" s="114"/>
+      <c r="H61" s="114"/>
+    </row>
+    <row r="62" spans="1:8" s="113" customFormat="1">
+      <c r="A62" s="114" t="s">
         <v>1422</v>
       </c>
-      <c r="B62" s="115" t="s">
+      <c r="B62" s="114" t="s">
         <v>1421</v>
       </c>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115" t="s">
+      <c r="C62" s="114"/>
+      <c r="D62" s="114" t="s">
         <v>1422</v>
       </c>
-      <c r="E62" s="115" t="s">
+      <c r="E62" s="114" t="s">
         <v>1423</v>
       </c>
-      <c r="F62" s="115" t="s">
+      <c r="F62" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G62" s="115"/>
-      <c r="H62" s="115"/>
-    </row>
-    <row r="63" spans="1:8" s="114" customFormat="1">
-      <c r="A63" s="115" t="s">
+      <c r="G62" s="114"/>
+      <c r="H62" s="114"/>
+    </row>
+    <row r="63" spans="1:8" s="113" customFormat="1">
+      <c r="A63" s="114" t="s">
         <v>1507</v>
       </c>
-      <c r="B63" s="115" t="s">
+      <c r="B63" s="114" t="s">
         <v>1424</v>
       </c>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115" t="s">
+      <c r="C63" s="114"/>
+      <c r="D63" s="114" t="s">
         <v>1425</v>
       </c>
-      <c r="E63" s="115" t="s">
+      <c r="E63" s="114" t="s">
         <v>1426</v>
       </c>
-      <c r="F63" s="115" t="s">
+      <c r="F63" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G63" s="115"/>
-      <c r="H63" s="115"/>
-    </row>
-    <row r="64" spans="1:8" s="114" customFormat="1">
-      <c r="A64" s="115" t="s">
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
+    </row>
+    <row r="64" spans="1:8" s="113" customFormat="1">
+      <c r="A64" s="114" t="s">
         <v>1427</v>
       </c>
-      <c r="B64" s="115" t="s">
+      <c r="B64" s="114" t="s">
         <v>1454</v>
       </c>
-      <c r="C64" s="115" t="s">
+      <c r="C64" s="114" t="s">
         <v>1455</v>
       </c>
-      <c r="D64" s="115" t="s">
+      <c r="D64" s="114" t="s">
         <v>1427</v>
       </c>
-      <c r="E64" s="115" t="s">
+      <c r="E64" s="114" t="s">
         <v>1428</v>
       </c>
-      <c r="F64" s="115" t="s">
+      <c r="F64" s="114" t="s">
         <v>1429</v>
       </c>
-      <c r="G64" s="115"/>
-      <c r="H64" s="115"/>
-    </row>
-    <row r="65" spans="1:8" s="114" customFormat="1">
-      <c r="A65" s="115" t="s">
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+    </row>
+    <row r="65" spans="1:8" s="113" customFormat="1">
+      <c r="A65" s="114" t="s">
         <v>1431</v>
       </c>
-      <c r="B65" s="115" t="s">
+      <c r="B65" s="114" t="s">
         <v>1430</v>
       </c>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115" t="s">
+      <c r="C65" s="114"/>
+      <c r="D65" s="114" t="s">
         <v>1431</v>
       </c>
-      <c r="E65" s="115" t="s">
+      <c r="E65" s="114" t="s">
         <v>1432</v>
       </c>
-      <c r="F65" s="115" t="s">
+      <c r="F65" s="114" t="s">
         <v>1429</v>
       </c>
-      <c r="G65" s="115"/>
-      <c r="H65" s="115"/>
-    </row>
-    <row r="66" spans="1:8" s="114" customFormat="1">
-      <c r="A66" s="115" t="s">
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+    </row>
+    <row r="66" spans="1:8" s="113" customFormat="1">
+      <c r="A66" s="114" t="s">
         <v>1434</v>
       </c>
-      <c r="B66" s="115" t="s">
+      <c r="B66" s="114" t="s">
         <v>1433</v>
       </c>
-      <c r="C66" s="115"/>
-      <c r="D66" s="115" t="s">
+      <c r="C66" s="114"/>
+      <c r="D66" s="114" t="s">
         <v>1434</v>
       </c>
-      <c r="E66" s="115" t="s">
+      <c r="E66" s="114" t="s">
         <v>1435</v>
       </c>
-      <c r="F66" s="115" t="s">
+      <c r="F66" s="114" t="s">
         <v>1429</v>
       </c>
-      <c r="G66" s="115"/>
-      <c r="H66" s="115"/>
-    </row>
-    <row r="67" spans="1:8" s="114" customFormat="1">
-      <c r="A67" s="115" t="s">
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+    </row>
+    <row r="67" spans="1:8" s="113" customFormat="1">
+      <c r="A67" s="114" t="s">
         <v>1437</v>
       </c>
-      <c r="B67" s="115" t="s">
+      <c r="B67" s="114" t="s">
         <v>1436</v>
       </c>
-      <c r="C67" s="115"/>
-      <c r="D67" s="115" t="s">
+      <c r="C67" s="114"/>
+      <c r="D67" s="114" t="s">
         <v>1437</v>
       </c>
-      <c r="E67" s="115" t="s">
+      <c r="E67" s="114" t="s">
         <v>1438</v>
       </c>
-      <c r="F67" s="115" t="s">
+      <c r="F67" s="114" t="s">
         <v>1429</v>
       </c>
-      <c r="G67" s="115"/>
-      <c r="H67" s="115"/>
-    </row>
-    <row r="68" spans="1:8" s="114" customFormat="1">
-      <c r="A68" s="115" t="s">
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+    </row>
+    <row r="68" spans="1:8" s="113" customFormat="1">
+      <c r="A68" s="114" t="s">
         <v>1508</v>
       </c>
-      <c r="B68" s="115" t="s">
+      <c r="B68" s="114" t="s">
         <v>1457</v>
       </c>
-      <c r="C68" s="115" t="s">
+      <c r="C68" s="114" t="s">
         <v>1458</v>
       </c>
-      <c r="D68" s="115" t="s">
+      <c r="D68" s="114" t="s">
         <v>1439</v>
       </c>
-      <c r="E68" s="115" t="s">
+      <c r="E68" s="114" t="s">
         <v>1440</v>
       </c>
-      <c r="F68" s="115" t="s">
+      <c r="F68" s="114" t="s">
         <v>1248</v>
       </c>
-      <c r="G68" s="115"/>
-      <c r="H68" s="115"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="114"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="111" t="s">
+      <c r="A69" s="110" t="s">
         <v>1481</v>
       </c>
-      <c r="B69" s="111" t="s">
+      <c r="B69" s="110" t="s">
         <v>1479</v>
       </c>
-      <c r="D69" s="111" t="s">
+      <c r="D69" s="110" t="s">
         <v>1481</v>
       </c>
-      <c r="E69" s="111" t="s">
+      <c r="E69" s="110" t="s">
         <v>1480</v>
       </c>
-      <c r="F69" s="111" t="s">
+      <c r="F69" s="110" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="111" t="s">
+      <c r="A70" s="110" t="s">
         <v>1482</v>
       </c>
-      <c r="B70" s="111" t="s">
+      <c r="B70" s="110" t="s">
         <v>1483</v>
       </c>
-      <c r="D70" s="111" t="s">
+      <c r="D70" s="110" t="s">
         <v>1482</v>
       </c>
-      <c r="E70" s="111" t="s">
+      <c r="E70" s="110" t="s">
         <v>1484</v>
       </c>
-      <c r="F70" s="111" t="s">
+      <c r="F70" s="110" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="111" t="s">
+      <c r="A71" s="110" t="s">
         <v>1510</v>
       </c>
-      <c r="B71" s="111" t="s">
+      <c r="B71" s="110" t="s">
         <v>1488</v>
       </c>
-      <c r="C71" s="111" t="s">
+      <c r="C71" s="110" t="s">
         <v>1486</v>
       </c>
-      <c r="D71" s="111" t="s">
+      <c r="D71" s="110" t="s">
         <v>1487</v>
       </c>
-      <c r="E71" s="111" t="s">
+      <c r="E71" s="110" t="s">
         <v>1485</v>
       </c>
-      <c r="F71" s="111" t="s">
+      <c r="F71" s="110" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="111" t="s">
+      <c r="A72" s="110" t="s">
         <v>1490</v>
       </c>
-      <c r="B72" s="111" t="s">
+      <c r="B72" s="110" t="s">
         <v>1489</v>
       </c>
-      <c r="D72" s="111" t="s">
+      <c r="D72" s="110" t="s">
         <v>1490</v>
       </c>
-      <c r="E72" s="111" t="s">
+      <c r="E72" s="110" t="s">
         <v>1491</v>
       </c>
-      <c r="F72" s="111" t="s">
+      <c r="F72" s="110" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="111" t="s">
+      <c r="A73" s="110" t="s">
         <v>1509</v>
       </c>
-      <c r="B73" s="111" t="s">
+      <c r="B73" s="110" t="s">
         <v>1492</v>
       </c>
-      <c r="D73" s="111" t="s">
+      <c r="D73" s="110" t="s">
         <v>1493</v>
       </c>
-      <c r="E73" s="111" t="s">
+      <c r="E73" s="110" t="s">
         <v>1493</v>
       </c>
-      <c r="F73" s="111" t="s">
+      <c r="F73" s="110" t="s">
         <v>1248</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE9C347-2D14-4B5A-8CD2-1FD0ECEBECB5}">
-  <dimension ref="A1:D36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" style="96" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" style="96" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" style="96" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" style="96" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="96"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="97" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B1" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="96" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B2" s="96" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C2" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="96" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B3" s="96" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C3" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="96" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C4" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="96" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C5" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="96" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B6" s="96" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C6" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="96" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B7" s="96" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C7" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="96" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C8" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="96" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B9" s="96" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C9" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="111" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B10" s="111" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C10" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="96" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B11" s="96" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C11" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="96" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B12" s="96" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C12" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="96" t="s">
-        <v>1569</v>
-      </c>
-      <c r="B13" s="96" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C13" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="117" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B14" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="117">
-        <v>0</v>
-      </c>
-      <c r="D14" s="117"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="117" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B15" s="117" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C15" s="117">
-        <v>1</v>
-      </c>
-      <c r="D15" s="117"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="117" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B16" s="117" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C16" s="117">
-        <v>1</v>
-      </c>
-      <c r="D16" s="117"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="117" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B17" s="117" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C17" s="117">
-        <v>1</v>
-      </c>
-      <c r="D17" s="117"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="117" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B18" s="117" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C18" s="117">
-        <v>1</v>
-      </c>
-      <c r="D18" s="117" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="117" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B19" s="117" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C19" s="117">
-        <v>0</v>
-      </c>
-      <c r="D19" s="117" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="117" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B20" s="117" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C20" s="117">
-        <v>1</v>
-      </c>
-      <c r="D20" s="117"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="96" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B21" s="96" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C21" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="96" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B22" s="96" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C22" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="96" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B23" s="96" t="s">
-        <v>1576</v>
-      </c>
-      <c r="C23" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="96" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B24" s="96" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C24" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="96" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B25" s="96" t="s">
-        <v>1580</v>
-      </c>
-      <c r="C25" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="96" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B26" s="96" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C26" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="96" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B27" s="96" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C27" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="96" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B28" s="96" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C28" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="96" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B29" s="96" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C29" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="96" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B30" s="96" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C30" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="96" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B31" s="96" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C31" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="96" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B32" s="96" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C32" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="96" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B33" s="96" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C33" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="111" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B34" s="111" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C34" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="111" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B35" s="111" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C35" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="96" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B36" s="96" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C36" s="96">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8674,13 +9023,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>1565</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="115" t="s">
         <v>1564</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="115" t="s">
         <v>912</v>
       </c>
     </row>
@@ -16452,7 +16801,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14" style="104" customWidth="1"/>
+    <col min="1" max="1" width="14" style="103" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" style="96" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="106.85546875" style="96" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="21.7109375" style="96" customWidth="1"/>
@@ -16460,1368 +16809,1368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>1009</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="98" t="s">
         <v>1010</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="98" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>1020</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="100" t="s">
         <v>913</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="100" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>1021</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="100" t="s">
         <v>915</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="100" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="99" t="s">
         <v>1022</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>961</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="100" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>1023</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="100" t="s">
         <v>918</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="100" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>1024</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="100" t="s">
         <v>920</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="100" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="99" t="s">
         <v>1025</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>922</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="100" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>1026</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>924</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="100" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="99" t="s">
         <v>1027</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="100" t="s">
         <v>926</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="100" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="99" t="s">
         <v>1028</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>928</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="100" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="99" t="s">
         <v>1029</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="100" t="s">
         <v>930</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="100" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="99" t="s">
         <v>1030</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="100" t="s">
         <v>932</v>
       </c>
-      <c r="C12" s="101"/>
+      <c r="C12" s="100"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="100" t="s">
         <v>934</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="100" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="99" t="s">
         <v>1031</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="101"/>
+      <c r="C14" s="100"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="99" t="s">
         <v>1032</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="100" t="s">
         <v>936</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="100" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="99" t="s">
         <v>1033</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="101"/>
+      <c r="C16" s="100"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="99" t="s">
         <v>1034</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="100" t="s">
         <v>886</v>
       </c>
-      <c r="C17" s="101"/>
+      <c r="C17" s="100"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="99" t="s">
         <v>1035</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="100" t="s">
         <v>1036</v>
       </c>
-      <c r="C18" s="101"/>
+      <c r="C18" s="100"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="99" t="s">
         <v>1037</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="100" t="s">
         <v>1038</v>
       </c>
-      <c r="C19" s="101"/>
+      <c r="C19" s="100"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="99" t="s">
         <v>1039</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="100" t="s">
         <v>1040</v>
       </c>
-      <c r="C20" s="101"/>
+      <c r="C20" s="100"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="99" t="s">
         <v>1041</v>
       </c>
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="100" t="s">
         <v>1008</v>
       </c>
-      <c r="C21" s="101"/>
+      <c r="C21" s="100"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="99" t="s">
         <v>1042</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="100" t="s">
         <v>938</v>
       </c>
-      <c r="C22" s="101"/>
+      <c r="C22" s="100"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="99" t="s">
         <v>1043</v>
       </c>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="100" t="s">
         <v>939</v>
       </c>
-      <c r="C23" s="101"/>
+      <c r="C23" s="100"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="99" t="s">
         <v>1044</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="100" t="s">
         <v>940</v>
       </c>
-      <c r="C24" s="101"/>
+      <c r="C24" s="100"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="99" t="s">
         <v>1045</v>
       </c>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="100" t="s">
         <v>941</v>
       </c>
-      <c r="C25" s="101"/>
+      <c r="C25" s="100"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="99" t="s">
         <v>1046</v>
       </c>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="100" t="s">
         <v>942</v>
       </c>
-      <c r="C26" s="101"/>
+      <c r="C26" s="100"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="99" t="s">
         <v>1047</v>
       </c>
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="100" t="s">
         <v>943</v>
       </c>
-      <c r="C27" s="101"/>
+      <c r="C27" s="100"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="99" t="s">
         <v>1048</v>
       </c>
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="100" t="s">
         <v>944</v>
       </c>
-      <c r="C28" s="101"/>
+      <c r="C28" s="100"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="99" t="s">
         <v>1049</v>
       </c>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="100" t="s">
         <v>933</v>
       </c>
-      <c r="C29" s="101"/>
+      <c r="C29" s="100"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="99" t="s">
         <v>1050</v>
       </c>
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="100" t="s">
         <v>945</v>
       </c>
-      <c r="C30" s="101"/>
+      <c r="C30" s="100"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="99" t="s">
         <v>1051</v>
       </c>
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="100" t="s">
         <v>946</v>
       </c>
-      <c r="C31" s="101"/>
+      <c r="C31" s="100"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="99" t="s">
         <v>1052</v>
       </c>
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="100" t="s">
         <v>948</v>
       </c>
-      <c r="C32" s="101"/>
+      <c r="C32" s="100"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="100" t="s">
+      <c r="A33" s="99" t="s">
         <v>1053</v>
       </c>
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="100" t="s">
         <v>949</v>
       </c>
-      <c r="C33" s="101"/>
+      <c r="C33" s="100"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="99" t="s">
         <v>1054</v>
       </c>
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="100" t="s">
         <v>950</v>
       </c>
-      <c r="C34" s="101"/>
+      <c r="C34" s="100"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="100" t="s">
+      <c r="A35" s="99" t="s">
         <v>1055</v>
       </c>
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="100" t="s">
         <v>951</v>
       </c>
-      <c r="C35" s="101"/>
+      <c r="C35" s="100"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="99" t="s">
         <v>1056</v>
       </c>
-      <c r="B36" s="101" t="s">
+      <c r="B36" s="100" t="s">
         <v>952</v>
       </c>
-      <c r="C36" s="101"/>
+      <c r="C36" s="100"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="100" t="s">
+      <c r="A37" s="99" t="s">
         <v>1057</v>
       </c>
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="100" t="s">
         <v>953</v>
       </c>
-      <c r="C37" s="101"/>
+      <c r="C37" s="100"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="99" t="s">
         <v>1058</v>
       </c>
-      <c r="B38" s="101" t="s">
+      <c r="B38" s="100" t="s">
         <v>954</v>
       </c>
-      <c r="C38" s="101"/>
+      <c r="C38" s="100"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="100" t="s">
+      <c r="A39" s="99" t="s">
         <v>1059</v>
       </c>
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="100" t="s">
         <v>955</v>
       </c>
-      <c r="C39" s="101"/>
+      <c r="C39" s="100"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="99" t="s">
         <v>1060</v>
       </c>
-      <c r="B40" s="101" t="s">
+      <c r="B40" s="100" t="s">
         <v>956</v>
       </c>
-      <c r="C40" s="101"/>
+      <c r="C40" s="100"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="99" t="s">
         <v>1061</v>
       </c>
-      <c r="B41" s="101" t="s">
+      <c r="B41" s="100" t="s">
         <v>957</v>
       </c>
-      <c r="C41" s="101"/>
+      <c r="C41" s="100"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="99" t="s">
         <v>1062</v>
       </c>
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="100" t="s">
         <v>958</v>
       </c>
-      <c r="C42" s="101"/>
+      <c r="C42" s="100"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="99" t="s">
         <v>1063</v>
       </c>
-      <c r="B43" s="101" t="s">
+      <c r="B43" s="100" t="s">
         <v>959</v>
       </c>
-      <c r="C43" s="101"/>
+      <c r="C43" s="100"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="100" t="s">
+      <c r="A44" s="99" t="s">
         <v>1064</v>
       </c>
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="100" t="s">
         <v>960</v>
       </c>
-      <c r="C44" s="101"/>
+      <c r="C44" s="100"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="99" t="s">
         <v>1065</v>
       </c>
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="100" t="s">
         <v>961</v>
       </c>
-      <c r="C45" s="101"/>
+      <c r="C45" s="100"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="99" t="s">
         <v>1066</v>
       </c>
-      <c r="B46" s="101" t="s">
+      <c r="B46" s="100" t="s">
         <v>962</v>
       </c>
-      <c r="C46" s="101"/>
+      <c r="C46" s="100"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="100" t="s">
+      <c r="A47" s="99" t="s">
         <v>1067</v>
       </c>
-      <c r="B47" s="101" t="s">
+      <c r="B47" s="100" t="s">
         <v>963</v>
       </c>
-      <c r="C47" s="101"/>
+      <c r="C47" s="100"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="100" t="s">
+      <c r="A48" s="99" t="s">
         <v>1068</v>
       </c>
-      <c r="B48" s="101" t="s">
+      <c r="B48" s="100" t="s">
         <v>964</v>
       </c>
-      <c r="C48" s="101"/>
+      <c r="C48" s="100"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="100" t="s">
+      <c r="A49" s="99" t="s">
         <v>1069</v>
       </c>
-      <c r="B49" s="101" t="s">
+      <c r="B49" s="100" t="s">
         <v>965</v>
       </c>
-      <c r="C49" s="101"/>
+      <c r="C49" s="100"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="100" t="s">
+      <c r="A50" s="99" t="s">
         <v>1070</v>
       </c>
-      <c r="B50" s="101" t="s">
+      <c r="B50" s="100" t="s">
         <v>913</v>
       </c>
-      <c r="C50" s="101"/>
+      <c r="C50" s="100"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="100" t="s">
+      <c r="A51" s="99" t="s">
         <v>1011</v>
       </c>
-      <c r="B51" s="101" t="s">
+      <c r="B51" s="100" t="s">
         <v>1071</v>
       </c>
-      <c r="C51" s="101"/>
+      <c r="C51" s="100"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="100" t="s">
+      <c r="A52" s="99" t="s">
         <v>1012</v>
       </c>
-      <c r="B52" s="101" t="s">
+      <c r="B52" s="100" t="s">
         <v>995</v>
       </c>
-      <c r="C52" s="101"/>
+      <c r="C52" s="100"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="100" t="s">
+      <c r="A53" s="99" t="s">
         <v>1013</v>
       </c>
-      <c r="B53" s="101" t="s">
+      <c r="B53" s="100" t="s">
         <v>996</v>
       </c>
-      <c r="C53" s="101"/>
+      <c r="C53" s="100"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="100" t="s">
+      <c r="A54" s="99" t="s">
         <v>1014</v>
       </c>
-      <c r="B54" s="101" t="s">
+      <c r="B54" s="100" t="s">
         <v>997</v>
       </c>
-      <c r="C54" s="101"/>
+      <c r="C54" s="100"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="100" t="s">
+      <c r="A55" s="99" t="s">
         <v>1015</v>
       </c>
-      <c r="B55" s="101" t="s">
+      <c r="B55" s="100" t="s">
         <v>998</v>
       </c>
-      <c r="C55" s="101"/>
+      <c r="C55" s="100"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="100" t="s">
+      <c r="A56" s="99" t="s">
         <v>1016</v>
       </c>
-      <c r="B56" s="101" t="s">
+      <c r="B56" s="100" t="s">
         <v>999</v>
       </c>
-      <c r="C56" s="101"/>
+      <c r="C56" s="100"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="100" t="s">
+      <c r="A57" s="99" t="s">
         <v>1017</v>
       </c>
-      <c r="B57" s="101" t="s">
+      <c r="B57" s="100" t="s">
         <v>1000</v>
       </c>
-      <c r="C57" s="101"/>
+      <c r="C57" s="100"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="100" t="s">
+      <c r="A58" s="99" t="s">
         <v>1018</v>
       </c>
-      <c r="B58" s="101" t="s">
+      <c r="B58" s="100" t="s">
         <v>1001</v>
       </c>
-      <c r="C58" s="101"/>
+      <c r="C58" s="100"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="100" t="s">
+      <c r="A59" s="99" t="s">
         <v>1019</v>
       </c>
-      <c r="B59" s="101" t="s">
+      <c r="B59" s="100" t="s">
         <v>1002</v>
       </c>
-      <c r="C59" s="101"/>
+      <c r="C59" s="100"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="100" t="s">
+      <c r="A60" s="99" t="s">
         <v>1072</v>
       </c>
-      <c r="B60" s="101" t="s">
+      <c r="B60" s="100" t="s">
         <v>1003</v>
       </c>
-      <c r="C60" s="101"/>
+      <c r="C60" s="100"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="100" t="s">
+      <c r="A61" s="99" t="s">
         <v>1073</v>
       </c>
-      <c r="B61" s="101" t="s">
+      <c r="B61" s="100" t="s">
         <v>1004</v>
       </c>
-      <c r="C61" s="101"/>
+      <c r="C61" s="100"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="100" t="s">
+      <c r="A62" s="99" t="s">
         <v>1074</v>
       </c>
-      <c r="B62" s="101" t="s">
+      <c r="B62" s="100" t="s">
         <v>1005</v>
       </c>
-      <c r="C62" s="101"/>
+      <c r="C62" s="100"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="100" t="s">
+      <c r="A63" s="99" t="s">
         <v>1075</v>
       </c>
-      <c r="B63" s="101" t="s">
+      <c r="B63" s="100" t="s">
         <v>966</v>
       </c>
-      <c r="C63" s="101"/>
+      <c r="C63" s="100"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="100" t="s">
+      <c r="A64" s="99" t="s">
         <v>1076</v>
       </c>
-      <c r="B64" s="101" t="s">
+      <c r="B64" s="100" t="s">
         <v>967</v>
       </c>
-      <c r="C64" s="101" t="s">
+      <c r="C64" s="100" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="100" t="s">
+      <c r="A65" s="99" t="s">
         <v>1077</v>
       </c>
-      <c r="B65" s="101" t="s">
+      <c r="B65" s="100" t="s">
         <v>969</v>
       </c>
-      <c r="C65" s="101" t="s">
+      <c r="C65" s="100" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="100" t="s">
+      <c r="A66" s="99" t="s">
         <v>1078</v>
       </c>
-      <c r="B66" s="101" t="s">
+      <c r="B66" s="100" t="s">
         <v>971</v>
       </c>
-      <c r="C66" s="101"/>
+      <c r="C66" s="100"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="100" t="s">
+      <c r="A67" s="99" t="s">
         <v>1079</v>
       </c>
-      <c r="B67" s="101" t="s">
+      <c r="B67" s="100" t="s">
         <v>972</v>
       </c>
-      <c r="C67" s="101"/>
+      <c r="C67" s="100"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="100" t="s">
+      <c r="A68" s="99" t="s">
         <v>1080</v>
       </c>
-      <c r="B68" s="101" t="s">
+      <c r="B68" s="100" t="s">
         <v>973</v>
       </c>
-      <c r="C68" s="101"/>
+      <c r="C68" s="100"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="100" t="s">
+      <c r="A69" s="99" t="s">
         <v>1081</v>
       </c>
-      <c r="B69" s="101" t="s">
+      <c r="B69" s="100" t="s">
         <v>974</v>
       </c>
-      <c r="C69" s="101"/>
+      <c r="C69" s="100"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="100" t="s">
+      <c r="A70" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="B70" s="101" t="s">
+      <c r="B70" s="100" t="s">
         <v>909</v>
       </c>
-      <c r="C70" s="101"/>
+      <c r="C70" s="100"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="100" t="s">
+      <c r="A71" s="99" t="s">
         <v>1083</v>
       </c>
-      <c r="B71" s="101" t="s">
+      <c r="B71" s="100" t="s">
         <v>975</v>
       </c>
-      <c r="C71" s="101"/>
+      <c r="C71" s="100"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="100" t="s">
+      <c r="A72" s="99" t="s">
         <v>1084</v>
       </c>
-      <c r="B72" s="101" t="s">
+      <c r="B72" s="100" t="s">
         <v>976</v>
       </c>
-      <c r="C72" s="101" t="s">
+      <c r="C72" s="100" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="100" t="s">
+      <c r="A73" s="99" t="s">
         <v>1085</v>
       </c>
-      <c r="B73" s="101" t="s">
+      <c r="B73" s="100" t="s">
         <v>978</v>
       </c>
-      <c r="C73" s="101" t="s">
+      <c r="C73" s="100" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="100" t="s">
+      <c r="A74" s="99" t="s">
         <v>1086</v>
       </c>
-      <c r="B74" s="101" t="s">
+      <c r="B74" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="101" t="s">
+      <c r="C74" s="100" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="100" t="s">
+      <c r="A75" s="99" t="s">
         <v>1087</v>
       </c>
-      <c r="B75" s="101" t="s">
+      <c r="B75" s="100" t="s">
         <v>980</v>
       </c>
-      <c r="C75" s="101" t="s">
+      <c r="C75" s="100" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="100" t="s">
+      <c r="A76" s="99" t="s">
         <v>1088</v>
       </c>
-      <c r="B76" s="101" t="s">
+      <c r="B76" s="100" t="s">
         <v>982</v>
       </c>
-      <c r="C76" s="101" t="s">
+      <c r="C76" s="100" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="100" t="s">
+      <c r="A77" s="99" t="s">
         <v>1089</v>
       </c>
-      <c r="B77" s="101" t="s">
+      <c r="B77" s="100" t="s">
         <v>984</v>
       </c>
-      <c r="C77" s="101"/>
+      <c r="C77" s="100"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="100" t="s">
+      <c r="A78" s="99" t="s">
         <v>1090</v>
       </c>
-      <c r="B78" s="101" t="s">
+      <c r="B78" s="100" t="s">
         <v>947</v>
       </c>
-      <c r="C78" s="101"/>
+      <c r="C78" s="100"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="100" t="s">
+      <c r="A79" s="99" t="s">
         <v>1091</v>
       </c>
-      <c r="B79" s="101" t="s">
+      <c r="B79" s="100" t="s">
         <v>985</v>
       </c>
-      <c r="C79" s="101"/>
+      <c r="C79" s="100"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="100" t="s">
+      <c r="A80" s="99" t="s">
         <v>1092</v>
       </c>
-      <c r="B80" s="101" t="s">
+      <c r="B80" s="100" t="s">
         <v>986</v>
       </c>
-      <c r="C80" s="101"/>
+      <c r="C80" s="100"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="100" t="s">
+      <c r="A81" s="99" t="s">
         <v>1093</v>
       </c>
-      <c r="B81" s="101" t="s">
+      <c r="B81" s="100" t="s">
         <v>1006</v>
       </c>
-      <c r="C81" s="101"/>
+      <c r="C81" s="100"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="100" t="s">
+      <c r="A82" s="99" t="s">
         <v>1094</v>
       </c>
-      <c r="B82" s="101" t="s">
+      <c r="B82" s="100" t="s">
         <v>987</v>
       </c>
-      <c r="C82" s="101"/>
+      <c r="C82" s="100"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="100" t="s">
+      <c r="A83" s="99" t="s">
         <v>1095</v>
       </c>
-      <c r="B83" s="101" t="s">
+      <c r="B83" s="100" t="s">
         <v>988</v>
       </c>
-      <c r="C83" s="101"/>
+      <c r="C83" s="100"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="100" t="s">
+      <c r="A84" s="99" t="s">
         <v>1096</v>
       </c>
-      <c r="B84" s="101" t="s">
+      <c r="B84" s="100" t="s">
         <v>989</v>
       </c>
-      <c r="C84" s="101"/>
+      <c r="C84" s="100"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="100" t="s">
+      <c r="A85" s="99" t="s">
         <v>1097</v>
       </c>
-      <c r="B85" s="101" t="s">
+      <c r="B85" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="101"/>
+      <c r="C85" s="100"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="100" t="s">
+      <c r="A86" s="99" t="s">
         <v>1098</v>
       </c>
-      <c r="B86" s="101" t="s">
+      <c r="B86" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C86" s="101"/>
+      <c r="C86" s="100"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="100" t="s">
+      <c r="A87" s="99" t="s">
         <v>1099</v>
       </c>
-      <c r="B87" s="101" t="s">
+      <c r="B87" s="100" t="s">
         <v>990</v>
       </c>
-      <c r="C87" s="101"/>
+      <c r="C87" s="100"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="100" t="s">
+      <c r="A88" s="99" t="s">
         <v>1100</v>
       </c>
-      <c r="B88" s="101" t="s">
+      <c r="B88" s="100" t="s">
         <v>991</v>
       </c>
-      <c r="C88" s="101"/>
+      <c r="C88" s="100"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="100" t="s">
+      <c r="A89" s="99" t="s">
         <v>1101</v>
       </c>
-      <c r="B89" s="101" t="s">
+      <c r="B89" s="100" t="s">
         <v>1102</v>
       </c>
-      <c r="C89" s="101"/>
+      <c r="C89" s="100"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="100" t="s">
+      <c r="A90" s="99" t="s">
         <v>1103</v>
       </c>
-      <c r="B90" s="101" t="s">
+      <c r="B90" s="100" t="s">
         <v>992</v>
       </c>
-      <c r="C90" s="101"/>
+      <c r="C90" s="100"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="100" t="s">
+      <c r="A91" s="99" t="s">
         <v>1104</v>
       </c>
-      <c r="B91" s="101" t="s">
+      <c r="B91" s="100" t="s">
         <v>993</v>
       </c>
-      <c r="C91" s="101"/>
+      <c r="C91" s="100"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="100" t="s">
+      <c r="A92" s="99" t="s">
         <v>1105</v>
       </c>
-      <c r="B92" s="101" t="s">
+      <c r="B92" s="100" t="s">
         <v>994</v>
       </c>
-      <c r="C92" s="101"/>
+      <c r="C92" s="100"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="100" t="s">
+      <c r="A93" s="99" t="s">
         <v>1106</v>
       </c>
-      <c r="B93" s="101" t="s">
+      <c r="B93" s="100" t="s">
         <v>1107</v>
       </c>
-      <c r="C93" s="101"/>
+      <c r="C93" s="100"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="100" t="s">
+      <c r="A94" s="99" t="s">
         <v>1108</v>
       </c>
-      <c r="B94" s="101" t="s">
+      <c r="B94" s="100" t="s">
         <v>1109</v>
       </c>
-      <c r="C94" s="101"/>
+      <c r="C94" s="100"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="100" t="s">
+      <c r="A95" s="99" t="s">
         <v>1110</v>
       </c>
-      <c r="B95" s="101" t="s">
+      <c r="B95" s="100" t="s">
         <v>1007</v>
       </c>
-      <c r="C95" s="101"/>
+      <c r="C95" s="100"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="100" t="s">
+      <c r="A96" s="99" t="s">
         <v>1111</v>
       </c>
-      <c r="B96" s="101" t="s">
+      <c r="B96" s="100" t="s">
         <v>1112</v>
       </c>
-      <c r="C96" s="101"/>
+      <c r="C96" s="100"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="100" t="s">
+      <c r="A97" s="99" t="s">
         <v>1113</v>
       </c>
-      <c r="B97" s="101" t="s">
+      <c r="B97" s="100" t="s">
         <v>1114</v>
       </c>
-      <c r="C97" s="101"/>
+      <c r="C97" s="100"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="100" t="s">
+      <c r="A98" s="99" t="s">
         <v>1115</v>
       </c>
-      <c r="B98" s="101" t="s">
+      <c r="B98" s="100" t="s">
         <v>1116</v>
       </c>
-      <c r="C98" s="101"/>
+      <c r="C98" s="100"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="100" t="s">
+      <c r="A99" s="99" t="s">
         <v>1117</v>
       </c>
-      <c r="B99" s="101" t="s">
+      <c r="B99" s="100" t="s">
         <v>1118</v>
       </c>
-      <c r="C99" s="101"/>
+      <c r="C99" s="100"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="100" t="s">
+      <c r="A100" s="99" t="s">
         <v>1119</v>
       </c>
-      <c r="B100" s="101" t="s">
+      <c r="B100" s="100" t="s">
         <v>1120</v>
       </c>
-      <c r="C100" s="101"/>
+      <c r="C100" s="100"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="100" t="s">
+      <c r="A101" s="99" t="s">
         <v>1121</v>
       </c>
-      <c r="B101" s="101" t="s">
+      <c r="B101" s="100" t="s">
         <v>1122</v>
       </c>
-      <c r="C101" s="101"/>
+      <c r="C101" s="100"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="100" t="s">
+      <c r="A102" s="99" t="s">
         <v>1123</v>
       </c>
-      <c r="B102" s="101" t="s">
+      <c r="B102" s="100" t="s">
         <v>1124</v>
       </c>
-      <c r="C102" s="101"/>
+      <c r="C102" s="100"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="100" t="s">
+      <c r="A103" s="99" t="s">
         <v>1125</v>
       </c>
-      <c r="B103" s="101" t="s">
+      <c r="B103" s="100" t="s">
         <v>1126</v>
       </c>
-      <c r="C103" s="101"/>
+      <c r="C103" s="100"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="100" t="s">
+      <c r="A104" s="99" t="s">
         <v>1127</v>
       </c>
-      <c r="B104" s="101" t="s">
+      <c r="B104" s="100" t="s">
         <v>1126</v>
       </c>
-      <c r="C104" s="101"/>
+      <c r="C104" s="100"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="100">
+      <c r="A105" s="99">
         <v>11</v>
       </c>
-      <c r="B105" s="101" t="s">
+      <c r="B105" s="100" t="s">
         <v>1128</v>
       </c>
-      <c r="C105" s="101"/>
+      <c r="C105" s="100"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="100">
+      <c r="A106" s="99">
         <v>12</v>
       </c>
-      <c r="B106" s="101" t="s">
+      <c r="B106" s="100" t="s">
         <v>1129</v>
       </c>
-      <c r="C106" s="101"/>
+      <c r="C106" s="100"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="100">
+      <c r="A107" s="99">
         <v>13</v>
       </c>
-      <c r="B107" s="101" t="s">
+      <c r="B107" s="100" t="s">
         <v>1130</v>
       </c>
-      <c r="C107" s="101"/>
+      <c r="C107" s="100"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="100">
+      <c r="A108" s="99">
         <v>14</v>
       </c>
-      <c r="B108" s="101" t="s">
+      <c r="B108" s="100" t="s">
         <v>1131</v>
       </c>
-      <c r="C108" s="101" t="s">
+      <c r="C108" s="100" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="100">
+      <c r="A109" s="99">
         <v>15</v>
       </c>
-      <c r="B109" s="101" t="s">
+      <c r="B109" s="100" t="s">
         <v>1132</v>
       </c>
-      <c r="C109" s="101" t="s">
+      <c r="C109" s="100" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="100">
+      <c r="A110" s="99">
         <v>16</v>
       </c>
-      <c r="B110" s="101" t="s">
+      <c r="B110" s="100" t="s">
         <v>1134</v>
       </c>
-      <c r="C110" s="101" t="s">
+      <c r="C110" s="100" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="100">
+      <c r="A111" s="99">
         <v>17</v>
       </c>
-      <c r="B111" s="101" t="s">
+      <c r="B111" s="100" t="s">
         <v>1136</v>
       </c>
-      <c r="C111" s="101"/>
+      <c r="C111" s="100"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="100">
+      <c r="A112" s="99">
         <v>18</v>
       </c>
-      <c r="B112" s="101" t="s">
+      <c r="B112" s="100" t="s">
         <v>1137</v>
       </c>
-      <c r="C112" s="101"/>
+      <c r="C112" s="100"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="100">
+      <c r="A113" s="99">
         <v>19</v>
       </c>
-      <c r="B113" s="101" t="s">
+      <c r="B113" s="100" t="s">
         <v>1138</v>
       </c>
-      <c r="C113" s="101"/>
+      <c r="C113" s="100"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="100">
+      <c r="A114" s="99">
         <v>20</v>
       </c>
-      <c r="B114" s="101" t="s">
+      <c r="B114" s="100" t="s">
         <v>1139</v>
       </c>
-      <c r="C114" s="101"/>
+      <c r="C114" s="100"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="100">
+      <c r="A115" s="99">
         <v>21</v>
       </c>
-      <c r="B115" s="101" t="s">
+      <c r="B115" s="100" t="s">
         <v>1140</v>
       </c>
-      <c r="C115" s="101"/>
+      <c r="C115" s="100"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="100">
+      <c r="A116" s="99">
         <v>22</v>
       </c>
-      <c r="B116" s="101" t="s">
+      <c r="B116" s="100" t="s">
         <v>1141</v>
       </c>
-      <c r="C116" s="101"/>
+      <c r="C116" s="100"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="100" t="s">
+      <c r="A117" s="99" t="s">
         <v>1050</v>
       </c>
-      <c r="B117" s="101" t="s">
+      <c r="B117" s="100" t="s">
         <v>1142</v>
       </c>
-      <c r="C117" s="101" t="s">
+      <c r="C117" s="100" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="100" t="s">
+      <c r="A118" s="99" t="s">
         <v>1051</v>
       </c>
-      <c r="B118" s="101" t="s">
+      <c r="B118" s="100" t="s">
         <v>1144</v>
       </c>
-      <c r="C118" s="101"/>
+      <c r="C118" s="100"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="100" t="s">
+      <c r="A119" s="99" t="s">
         <v>1145</v>
       </c>
-      <c r="B119" s="101" t="s">
+      <c r="B119" s="100" t="s">
         <v>1146</v>
       </c>
-      <c r="C119" s="101"/>
+      <c r="C119" s="100"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="100" t="s">
+      <c r="A120" s="99" t="s">
         <v>1147</v>
       </c>
-      <c r="B120" s="101" t="s">
+      <c r="B120" s="100" t="s">
         <v>1148</v>
       </c>
-      <c r="C120" s="101" t="s">
+      <c r="C120" s="100" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="100" t="s">
+      <c r="A121" s="99" t="s">
         <v>1150</v>
       </c>
-      <c r="B121" s="101" t="s">
+      <c r="B121" s="100" t="s">
         <v>1151</v>
       </c>
-      <c r="C121" s="101" t="s">
+      <c r="C121" s="100" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="100" t="s">
+      <c r="A122" s="99" t="s">
         <v>1152</v>
       </c>
-      <c r="B122" s="101" t="s">
+      <c r="B122" s="100" t="s">
         <v>1153</v>
       </c>
-      <c r="C122" s="101" t="s">
+      <c r="C122" s="100" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="100" t="s">
+      <c r="A123" s="99" t="s">
         <v>1154</v>
       </c>
-      <c r="B123" s="101" t="s">
+      <c r="B123" s="100" t="s">
         <v>1155</v>
       </c>
-      <c r="C123" s="101" t="s">
+      <c r="C123" s="100" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="100" t="s">
+      <c r="A124" s="99" t="s">
         <v>1156</v>
       </c>
-      <c r="B124" s="101" t="s">
+      <c r="B124" s="100" t="s">
         <v>1157</v>
       </c>
-      <c r="C124" s="101" t="s">
+      <c r="C124" s="100" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="100" t="s">
+      <c r="A125" s="99" t="s">
         <v>1158</v>
       </c>
-      <c r="B125" s="101" t="s">
+      <c r="B125" s="100" t="s">
         <v>1159</v>
       </c>
-      <c r="C125" s="101" t="s">
+      <c r="C125" s="100" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="100" t="s">
+      <c r="A126" s="99" t="s">
         <v>1160</v>
       </c>
-      <c r="B126" s="101" t="s">
+      <c r="B126" s="100" t="s">
         <v>1161</v>
       </c>
-      <c r="C126" s="101" t="s">
+      <c r="C126" s="100" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="100" t="s">
+      <c r="A127" s="99" t="s">
         <v>1162</v>
       </c>
-      <c r="B127" s="101" t="s">
+      <c r="B127" s="100" t="s">
         <v>1163</v>
       </c>
-      <c r="C127" s="101" t="s">
+      <c r="C127" s="100" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="100" t="s">
+      <c r="A128" s="99" t="s">
         <v>1028</v>
       </c>
-      <c r="B128" s="101" t="s">
+      <c r="B128" s="100" t="s">
         <v>1164</v>
       </c>
-      <c r="C128" s="101" t="s">
+      <c r="C128" s="100" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="100" t="s">
+      <c r="A129" s="99" t="s">
         <v>1165</v>
       </c>
-      <c r="B129" s="101" t="s">
+      <c r="B129" s="100" t="s">
         <v>1166</v>
       </c>
-      <c r="C129" s="101" t="s">
+      <c r="C129" s="100" t="s">
         <v>1166</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="100" t="s">
+      <c r="A130" s="99" t="s">
         <v>1167</v>
       </c>
-      <c r="B130" s="101" t="s">
+      <c r="B130" s="100" t="s">
         <v>1168</v>
       </c>
-      <c r="C130" s="101" t="s">
+      <c r="C130" s="100" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="100" t="s">
+      <c r="A131" s="99" t="s">
         <v>1170</v>
       </c>
-      <c r="B131" s="101" t="s">
+      <c r="B131" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="C131" s="101" t="s">
+      <c r="C131" s="100" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="100" t="s">
+      <c r="A132" s="99" t="s">
         <v>1171</v>
       </c>
-      <c r="B132" s="101" t="s">
+      <c r="B132" s="100" t="s">
         <v>1172</v>
       </c>
-      <c r="C132" s="101"/>
+      <c r="C132" s="100"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="100" t="s">
+      <c r="A133" s="99" t="s">
         <v>853</v>
       </c>
-      <c r="B133" s="101" t="s">
+      <c r="B133" s="100" t="s">
         <v>1173</v>
       </c>
-      <c r="C133" s="101"/>
+      <c r="C133" s="100"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="100" t="s">
+      <c r="A134" s="99" t="s">
         <v>1174</v>
       </c>
-      <c r="B134" s="101" t="s">
+      <c r="B134" s="100" t="s">
         <v>1175</v>
       </c>
-      <c r="C134" s="101"/>
+      <c r="C134" s="100"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="100" t="s">
+      <c r="A135" s="99" t="s">
         <v>1176</v>
       </c>
-      <c r="B135" s="101" t="s">
+      <c r="B135" s="100" t="s">
         <v>1177</v>
       </c>
-      <c r="C135" s="101" t="s">
+      <c r="C135" s="100" t="s">
         <v>1178</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="100" t="s">
+      <c r="A136" s="99" t="s">
         <v>1179</v>
       </c>
-      <c r="B136" s="101" t="s">
+      <c r="B136" s="100" t="s">
         <v>1180</v>
       </c>
-      <c r="C136" s="101" t="s">
+      <c r="C136" s="100" t="s">
         <v>1181</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="100" t="s">
+      <c r="A137" s="99" t="s">
         <v>1182</v>
       </c>
-      <c r="B137" s="101" t="s">
+      <c r="B137" s="100" t="s">
         <v>1183</v>
       </c>
-      <c r="C137" s="101" t="s">
+      <c r="C137" s="100" t="s">
         <v>1183</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="100" t="s">
+      <c r="A138" s="99" t="s">
         <v>1184</v>
       </c>
-      <c r="B138" s="101" t="s">
+      <c r="B138" s="100" t="s">
         <v>1185</v>
       </c>
-      <c r="C138" s="101" t="s">
+      <c r="C138" s="100" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="100" t="s">
+      <c r="A139" s="99" t="s">
         <v>1186</v>
       </c>
-      <c r="B139" s="101" t="s">
+      <c r="B139" s="100" t="s">
         <v>1187</v>
       </c>
-      <c r="C139" s="101" t="s">
+      <c r="C139" s="100" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="100" t="s">
+      <c r="A140" s="99" t="s">
         <v>1188</v>
       </c>
-      <c r="B140" s="101" t="s">
+      <c r="B140" s="100" t="s">
         <v>1189</v>
       </c>
-      <c r="C140" s="101" t="s">
+      <c r="C140" s="100" t="s">
         <v>1189</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="100" t="s">
+      <c r="A141" s="99" t="s">
         <v>1190</v>
       </c>
-      <c r="B141" s="101" t="s">
+      <c r="B141" s="100" t="s">
         <v>1191</v>
       </c>
-      <c r="C141" s="101" t="s">
+      <c r="C141" s="100" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="102" t="s">
+      <c r="A142" s="101" t="s">
         <v>1193</v>
       </c>
-      <c r="B142" s="103" t="s">
+      <c r="B142" s="102" t="s">
         <v>1194</v>
       </c>
-      <c r="C142" s="103" t="s">
+      <c r="C142" s="102" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -17865,13 +18214,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="120" t="s">
         <v>839</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="82" t="s">
@@ -18101,13 +18450,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="120" t="s">
         <v>882</v>
       </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
     </row>
     <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="82" t="s">
@@ -18409,13 +18758,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15">
-      <c r="A39" s="118" t="s">
+      <c r="A39" s="120" t="s">
         <v>907</v>
       </c>
-      <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
     </row>
     <row r="40" spans="1:5" ht="15.75">
       <c r="A40" s="82" t="s">
